--- a/tables/consent/forms/consent/consent.xlsx
+++ b/tables/consent/forms/consent/consent.xlsx
@@ -5,16 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="settings" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="table_specific_translations" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="survey" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="choices" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="model" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="calculates" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="settings" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="table_specific_translations" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="survey" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="choices" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="model" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="calculates" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,28 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="187">
-  <si>
-    <t xml:space="preserve">clause</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.prompt.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">do section survey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">goto _finalize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="203">
   <si>
     <t xml:space="preserve">setting_name</t>
   </si>
@@ -95,6 +73,9 @@
   </si>
   <si>
     <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
   </si>
   <si>
     <t xml:space="preserve">string_token</t>
@@ -182,22 +163,7 @@
     <t xml:space="preserve">researcher_name</t>
   </si>
   <si>
-    <t xml:space="preserve">Researcher’s name:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">သုတေသီ၏ အမည် </t>
-  </si>
-  <si>
-    <t xml:space="preserve">study_information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;div class="probe"&gt;Hi. My name is {{data.researcherName}}. I am a Research Assistant and my job is to talk to people to understand their experiences. This study is about Burmese migrants traveling to Thailand for employment. I would like to tell you a little more about this research and ask you if you would be willing to tell me about your story. Would it be okay if I explain the research now? &lt;/div&gt;
-&lt;div class="probe"&gt;Great, thank you for agreeing to hear more. Different organizations in Thailand, including MAP and FED are partnering with us, the London School of Hygiene and Tropical Medicine, to conduct research on Burmese migrants experiences in Thailand.&lt;/div&gt;
-&lt;div class="probe"&gt;The purpose of this research is: 1) To learn about how Burmese migrants decide and plan to migrate to Thailand; 2) To understand the dangers sometimes faced during migration and in Thailand; 3) To learn about ways organisations can support Burmese migrants in their migration processes.&lt;/div&gt;
-&lt;div class="probe"&gt;I would like to ask you some questions about your most recent migration and employment experiences, and about your health and well-being. I will be recording your answers on this tablet and on a digital audio recorder, but no identifying personal details, such as your name, address, telephone, will be written down or stored with any of your answers. They will be kept separate and confidential so no one can even know what you told us. There are no “right” or “wrong” answers. Just take your time to answer as best as you can remember. The information you provide will not be given to any government offices or any others organisations, just the research team in London. The information you provide during this interview will only be used for this study. You will not be identified in any reports resulting from this study.&lt;/div&gt;
-&lt;div class="probe"&gt;Some of the questions may bring up difficult memories or feelings. You can decline to answer any question. If you want to discuss anything more in-depth with our partner organisation we can help arrange this support after the interview.&lt;/div&gt;
-&lt;div class="probe"&gt;If you don’t understand why we are asking any particular question, please ask me. We are happy to provide you with more information about this research or the contact of who to ask your questions to, if you wish.&lt;/div&gt;
-&lt;div class="probe"&gt;If you do not want to proceed it will not affect services that you receive. If you agree to proceed, you can stop the interview at any time. If you don’t wish to answer a question or would like to ask me a question, please feel free to do so. This interview should take approximately 90 minutes. We would like to compensate you for your time by giving you 100 Thai Baht maximum, but will not be offering any other forms of compensation or payment for this time.&lt;/div&gt;</t>
+    <t xml:space="preserve">&lt;span style="font-weight:bold"&gt;Researcher's name:&lt;/span&gt;</t>
   </si>
   <si>
     <r>
@@ -208,7 +174,50 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;div class="probe"&gt;</t>
+      <t xml:space="preserve">&lt;span style="font-weight:bold"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">သုတေသီ၏ အမည် </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/span&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">study_information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;div class="researcher-script"&gt;Hi. My name is {{data.researcherName}}. I am a Research Assistant and my job is to talk to people to understand their experiences. This study is about Burmese migrants traveling to Thailand for employment. I would like to tell you a little more about this research and ask you if you would be willing to tell me about your story. Would it be okay if I explain the research now? &lt;/div&gt;
+&lt;div class="researcher-script"&gt;Great, thank you for agreeing to hear more. Different organizations in Thailand, including MAP and FED are partnering with us, the London School of Hygiene and Tropical Medicine, to conduct research on Burmese migrants experiences in Thailand.&lt;/div&gt;
+&lt;div class="researcher-script"&gt;The purpose of this research is: 1) To learn about how Burmese migrants decide and plan to migrate to Thailand; 2) To understand the dangers sometimes faced during migration and in Thailand; 3) To learn about ways organisations can support Burmese migrants in their migration processes.&lt;/div&gt;
+&lt;div class="researcher-script"&gt;I would like to ask you some questions about your most recent migration and employment experiences, and about your health and well-being. I will be recording your answers on this tablet and on a digital audio recorder, but no identifying personal details, such as your name, address, telephone, will be written down or stored with any of your answers. They will be kept separate and confidential so no one can even know what you told us. There are no “right” or “wrong” answers. Just take your time to answer as best as you can remember. The information you provide will not be given to any government offices or any others organisations, just the research team in London. The information you provide during this interview will only be used for this study. You will not be identified in any reports resulting from this study.&lt;/div&gt;
+&lt;div class="researcher-script"&gt;Some of the questions may bring up difficult memories or feelings. You can decline to answer any question. If you want to discuss anything more in-depth with our partner organisation we can help arrange this support after the interview.&lt;/div&gt;
+&lt;div class="researcher-script"&gt;If you don’t understand why we are asking any particular question, please ask me. We are happy to provide you with more information about this research or the contact of who to ask your questions to, if you wish.&lt;/div&gt;
+&lt;div class="researcher-script"&gt;If you do not want to proceed it will not affect services that you receive. If you agree to proceed, you can stop the interview at any time. If you don’t wish to answer a question or would like to ask me a question, please feel free to do so. This interview should take approximately 90 minutes. We would like to compensate you for your time by giving you a gift, but will not be offering any other forms of compensation or payment for this time.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;div class="researcher-script"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -246,26 +255,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">နာမည်</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
+      <t xml:space="preserve">{{data.researcherName}} </t>
     </r>
     <r>
       <rPr>
@@ -304,7 +294,7 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">?&lt;/div&gt;
-&lt;div class="probe"&gt;</t>
+&lt;div class="researcher-script"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -381,7 +371,7 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/div&gt;
-&lt;div class="probe"&gt;</t>
+&lt;div class="researcher-script"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -477,7 +467,7 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/div&gt;
-&lt;div class="probe"&gt;</t>
+&lt;div class="researcher-script"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -630,7 +620,7 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/div&gt;
-&lt;div class="probe"&gt;</t>
+&lt;div class="researcher-script"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -726,7 +716,7 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/div&gt;
-&lt;div class="probe"&gt;</t>
+&lt;div class="researcher-script"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -822,7 +812,7 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/div&gt;
-&lt;div class="probe"&gt;</t>
+&lt;div class="researcher-script"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -888,26 +878,7 @@
         <rFont val="Myanmar3"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">မတို့ကို ပြန်မေးဖို့ မေးခွန်းတွေ ရှိလာပါက ကျေးဇူးပြုပြီး လွတ်လပ်စွာ မေးမြန်းပေးပါ။ ဒီတွေ့ဆုံမေးမြန်းမှုဟာ ခန့်မှန်းခြေ မိနစ် ၉၀ ကြာမြင့်နိုင်ပါတယ်။ အများဆုံး ဘတ် ၁၀၀ ထိ ပြန်လည် ကူညီခြင်းအားဖြင့် ခင်ဗျား ပေးလိုက်ရတဲ့အတွက် ကျွန်တော်</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">မတို့အနေနဲ့ ပြန်လည်အစားပေးပါမယ်။ သို့သော်လည်း ခင်ဗျားရဲ့ အချိန်အတွက် ငွေပေးခြင်းနဲ့အခြား ဘယ်အစားထိုးပေးခြင်းပုံစံနဲ့မှ ပေးလိမ့်မည်မဟုတ်ပါ။</t>
+      <t xml:space="preserve">မတို့ကို ပြန်မေးဖို့ မေးခွန်းတွေ ရှိလာပါက ကျေးဇူးပြုပြီး လွတ်လပ်စွာ မေးမြန်းပေးပါ။ ဒီတွေ့ဆုံမေးမြန်းမှုဟာ ခန့်မှန်းခြေ မိနစ် ၉၀ ကြာမြင့်နိုင်ပါတယ်။ ယခုတွေ့ဆုံမေးမြန်းချိန်အတွက် အစားပေးသော အနေဖြင့် ကျေးဇူးတင် အသိအမှတ်ပြုလက်ဆောင်တစ်ခု ပေးပါလိမ့်မည်ဖြစ်သော်လည်း အခြားမည်သည့် ပြန်လည်အစားပေးခြင်းပုံစံမှ မရှိကြောင်း ဖြစ်ပါသည်။</t>
     </r>
     <r>
       <rPr>
@@ -924,7 +895,7 @@
     <t xml:space="preserve">agree_continue</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;div class="probe"&gt;In order to continue the interview I need to gain your consent. Would it be ok if I read you some questions as part of this information and consent process? &lt;/div&gt;</t>
+    <t xml:space="preserve">&lt;div class="researcher-script"&gt;In order to continue the interview I need to gain your consent. Would it be ok if I read you some questions as part of this information and consent process? &lt;/div&gt;</t>
   </si>
   <si>
     <r>
@@ -935,7 +906,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;div class="probe"&gt;</t>
+      <t xml:space="preserve">&lt;div class="researcher-script"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -995,10 +966,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">over_18</t>
+    <t xml:space="preserve">isAdult</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Do you confirm that you are 18 years or older? (yes/no)</t>
+    <t xml:space="preserve">&lt;span style="font-weight:bold"&gt;1. Do you confirm that you are 18 years or older? (yes/no)&lt;/span&gt;</t>
   </si>
   <si>
     <r>
@@ -1009,7 +980,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1. </t>
+      <t xml:space="preserve">&lt;span style="font-weight:bold"&gt;1. </t>
     </r>
     <r>
       <rPr>
@@ -1057,6 +1028,16 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">အထက် ဖြစ်ကြောင်း အတည်ပြုပါသလား။</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/span&gt;</t>
     </r>
   </si>
   <si>
@@ -1109,7 +1090,7 @@
     <t xml:space="preserve">agree_to_interview</t>
   </si>
   <si>
-    <t xml:space="preserve">3. Do you agree to be interviewed today? (yes/no)</t>
+    <t xml:space="preserve">&lt;span style="font-weight:bold"&gt;3. Do you agree to be interviewed today? (yes/no)&lt;/span&gt;</t>
   </si>
   <si>
     <r>
@@ -1120,7 +1101,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3. </t>
+      <t xml:space="preserve">&lt;span style="font-weight:bold"&gt;3. </t>
     </r>
     <r>
       <rPr>
@@ -1131,12 +1112,22 @@
       </rPr>
       <t xml:space="preserve">ခင်ဗျား ဒီနေ့ တွေ့ဆုံမေးမြန်းမှုဖို့ သဘောတူ လက်ခံပါသလား။</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/span&gt;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">telephone</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Would you be willing to give me a telephone number to contact you only for the purpose of this research? Participant’s telephone number: (digits box)</t>
+    <t xml:space="preserve">4. Would you be willing to give me a telephone number to contact you only for the purpose of this research? Participant's telephone number: (digits box)</t>
   </si>
   <si>
     <r>
@@ -1182,7 +1173,7 @@
     <t xml:space="preserve">preferred_contact</t>
   </si>
   <si>
-    <t xml:space="preserve">5. What is your preferred method of contact?</t>
+    <t xml:space="preserve">&lt;span style="font-weight:bold"&gt;5. What is your preferred method of contact?&lt;/span&gt;</t>
   </si>
   <si>
     <r>
@@ -1193,7 +1184,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5. </t>
+      <t xml:space="preserve">&lt;span style="font-weight:bold"&gt;5. </t>
     </r>
     <r>
       <rPr>
@@ -1203,6 +1194,62 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">ခင်ဗျား ပိုနှစ်သက်တဲ့ ဆက်သွယ်ရေး ပုံစံက ဘာလဲ။ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/span&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">other_preferred_contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other: Specify*</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">အခြားနည်းလမ်း</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ဖော်ပြရန်</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*</t>
     </r>
   </si>
   <si>
@@ -1246,7 +1293,7 @@
     <t xml:space="preserve">read_aloud</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;div class="probe"&gt;Would you prefer to read this consent portion by yourself or would you like me to read it aloud?&lt;/div&gt;</t>
+    <t xml:space="preserve">&lt;div class="researcher-script"&gt;Would you prefer to read this consent portion by yourself or would you like me to read it aloud?&lt;/div&gt;</t>
   </si>
   <si>
     <r>
@@ -1257,7 +1304,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;div class="probe"&gt;</t>
+      <t xml:space="preserve">&lt;div class="researcher-script"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1387,7 @@
     <t xml:space="preserve">participant_statement</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;div class="probe"&gt;I, the Participant, had the information on this consent form read to me and I have been asked if I agree to participate in this research project “Burmese labour migration to Thailand” as explained to me by the Researcher. I have been informed about the purpose for which my personal data and information will be collected, used and disclosed, but without any identifiable details. I understand that my personal data may be used and disclosed for secondary purposes that are necessary to achieve the purpose of the project. I was able to ask questions and any questions that I have asked have been answered in a way that I could understand. I understand that I can choose to withdraw from or interrupt the interview at any time without giving any reason and this will not affect any services that I receive.&lt;/div&gt;</t>
+    <t xml:space="preserve">&lt;div class="researcher-script"&gt;I, the Participant, had the information on this consent form read to me and I have been asked if I agree to participate in this research project “Burmese labour migration to Thailand” as explained to me by the Researcher. I have been informed about the purpose for which my personal data and information will be collected, used and disclosed, but without any identifiable details. I understand that my personal data may be used and disclosed for secondary purposes that are necessary to achieve the purpose of the project. I was able to ask questions and any questions that I have asked have been answered in a way that I could understand. I understand that I can choose to withdraw from or interrupt the interview at any time without giving any reason and this will not affect any services that I receive.&lt;/div&gt;</t>
   </si>
   <si>
     <r>
@@ -1351,7 +1398,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;div class="probe"&gt;</t>
+      <t xml:space="preserve">&lt;div class="researcher-script"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1415,7 +1462,7 @@
     <t xml:space="preserve">understand_compensation</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;div class="probe"&gt;I understand that I will be offered a compensation gift for this interview time, but no other forms of compensation.&lt;/div&gt;</t>
+    <t xml:space="preserve">&lt;div class="researcher-script"&gt;I understand that I will be offered a compensation gift for this interview time, but no other forms of compensation.&lt;/div&gt;</t>
   </si>
   <si>
     <r>
@@ -1426,7 +1473,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;div class="probe"&gt;</t>
+      <t xml:space="preserve">&lt;div class="researcher-script"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1435,7 +1482,7 @@
         <rFont val="Myanmar3"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ကျွန်ုပ် နားလည်သည်မှာ ယခုတွေ့ဆုံမေးမြန်းချိန်အတွက် ကျွန်ုပ်ကို ထိုင်းဘတ်ငွေ ၁၀၀ ပြန်လည် အစားပေးသွားမည်ဖြစ်ပြီး အခြားမည်သည့် ပြန်လည်အစားပေးခြင်းပုံစံမှ မရှိကြောင်း ဖြစ်ပါသည်။ </t>
+      <t xml:space="preserve">ကျွန်ုပ် နားလည်သည်မှာ ယခုတွေ့ဆုံမေးမြန်းချိန်အတွက် အစားပေးသော အနေဖြင့် ကျေးဇူးတင် အသိအမှတ်ပြုလက်ဆောင်တစ်ခု ပေးပါလိမ့်မည်ဖြစ်သော်လည်း အခြားမည်သည့် ပြန်လည်အစားပေးခြင်းပုံစံမှ မရှိကြောင်း ဖြစ်ပါသည်။</t>
     </r>
     <r>
       <rPr>
@@ -1452,7 +1499,7 @@
     <t xml:space="preserve">signature</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Sign Name OR Mark with ‘X’ </t>
+    <t xml:space="preserve">&lt;span style="font-weight:bold"&gt;7. Sign Name OR Mark with 'X'&lt;/span&gt;</t>
   </si>
   <si>
     <r>
@@ -1463,7 +1510,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6. </t>
+      <t xml:space="preserve">&lt;span style="font-weight:bold"&gt;7. </t>
     </r>
     <r>
       <rPr>
@@ -1501,7 +1548,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">) ‘X’ </t>
+      <t xml:space="preserve">) 'X' </t>
     </r>
     <r>
       <rPr>
@@ -1512,12 +1559,22 @@
       </rPr>
       <t xml:space="preserve">ဖြင့် အမှတ်အသား လုပ်ပါ။</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/span&gt;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">7. Date:</t>
+    <t xml:space="preserve">8. Date:</t>
   </si>
   <si>
     <r>
@@ -1528,7 +1585,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7. </t>
+      <t xml:space="preserve">8. </t>
     </r>
     <r>
       <rPr>
@@ -1581,8 +1638,8 @@
     <t xml:space="preserve">ask_reason</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;div class="probe"&gt;I understand that you do not want to participate in this research. I would like to ask you briefly a few more questions before we end.&lt;/div&gt;
-&lt;div class="probe"&gt;Would you mind telling me your reason for not wanting to continue?&lt;/div&gt;</t>
+    <t xml:space="preserve">&lt;div class="researcher-script"&gt;I understand that you do not want to participate in this research. I would like to ask you briefly a few more questions before we end.&lt;/div&gt;
+</t>
   </si>
   <si>
     <r>
@@ -1593,7 +1650,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;div class="probe"&gt;</t>
+      <t xml:space="preserve">&lt;div class="researcher-script"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1650,8 +1707,71 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;/div&gt;
-&lt;div class="probe"&gt;</t>
+      <t xml:space="preserve">&lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">other_ask_reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other*</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">အခြား</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ဖော်ပြရန်</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">refusal_reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;span style="font-weight:bold"&gt;1. Would you mind telling me your reason for not wanting to continue?&lt;/span&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;span style="font-weight:bold"&gt;1. </t>
     </r>
     <r>
       <rPr>
@@ -1689,14 +1809,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;/div&gt;</t>
+      <t xml:space="preserve">&lt;/span&gt;</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">interview_later</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Would you be willing to be interviewed at another time or day of your choosing?</t>
+    <t xml:space="preserve">&lt;span style="font-weight:bold"&gt;2. Would you be willing to be interviewed at another time or day of your choosing?&lt;/div&gt;</t>
   </si>
   <si>
     <r>
@@ -1707,7 +1827,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1. </t>
+      <t xml:space="preserve">&lt;span style="font-weight:bold"&gt;2. </t>
     </r>
     <r>
       <rPr>
@@ -1718,12 +1838,22 @@
       </rPr>
       <t xml:space="preserve">ခင်ဗျား ရွေးချယ်သော အခြားနေ့ရက်နှင့် အချိန်မှာရော အင်တာဗျူး ဖြေဆိုဖို့ ဆန္ဒရှိပါသလား။</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/span&gt;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">reschedule_interview</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;span&gt;If ‘Yes’ the Researcher notes the date and time the person has requested for the interview to take place and a telephone number to confirm.&lt;/span&gt;</t>
+    <t xml:space="preserve">&lt;span&gt;If 'Yes' the Researcher notes the date and time the person has requested for the interview to take place and a telephone number to confirm.&lt;/span&gt;</t>
   </si>
   <si>
     <r>
@@ -1734,7 +1864,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;span&gt;‘</t>
+      <t xml:space="preserve">&lt;span&gt;'</t>
     </r>
     <r>
       <rPr>
@@ -1743,7 +1873,26 @@
         <rFont val="Myanmar3"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ဖြေဆိုမည်’ ဆိုပါက သုတေသီသည် အင်တာဗျူးလုပ်ရန်အတွက် ပါဝင်မည့်သူမှ တောင်းဆိုသော နေ့ရက်၊ အချိန်နှင့် ဆက်သွယ်အတည်ပြုရန် ဖုန်းနံပါတ်တို့ကို မှတ်သားထားပါမည်။</t>
+      <t xml:space="preserve">ဖြေဆိုမည်</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ဆိုပါက သုတေသီသည် အင်တာဗျူးလုပ်ရန်အတွက် ပါဝင်မည့်သူမှ တောင်းဆိုသော နေ့ရက်၊ အချိန်နှင့် ဆက်သွယ်အတည်ပြုရန် ဖုန်းနံပါတ်တို့ကို မှတ်သားထားပါမည်။</t>
     </r>
     <r>
       <rPr>
@@ -1760,7 +1909,7 @@
     <t xml:space="preserve">any_questions_2</t>
   </si>
   <si>
-    <t xml:space="preserve">2. Do you have any questions before we end for today [and I see you next time]? (text box)</t>
+    <t xml:space="preserve">3. Do you have any questions before we end for today [and I see you next time]? (text box)</t>
   </si>
   <si>
     <r>
@@ -1771,7 +1920,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2. </t>
+      <t xml:space="preserve">3. </t>
     </r>
     <r>
       <rPr>
@@ -1919,7 +2068,7 @@
     <t xml:space="preserve">end_under_18_spoken</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;div class="probe"&gt;Unfortunately, to ensure the protection of children and adolescents, like yourself, we are not allowed to interview anyone under the age of 18 for this research. Thank you for your willingness to hear about the research and I am sorry we cannot interview you today.&lt;/span&gt;</t>
+    <t xml:space="preserve">&lt;div class="researcher-script"&gt;Unfortunately, to ensure the protection of children and adolescents, like yourself, we are not allowed to interview anyone under the age of 18 for this research. Thank you for your willingness to hear about the research and I am sorry we cannot interview you today.&lt;/span&gt;</t>
   </si>
   <si>
     <r>
@@ -1930,7 +2079,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;div class="probe"&gt;</t>
+      <t xml:space="preserve">&lt;div class="researcher-script"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -2070,13 +2219,46 @@
     <t xml:space="preserve">&lt;div style="color:red"&gt;SKIP IF DID NOT AGREE&lt;/div&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">interviewee_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Name</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">အမည် </t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">branch_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clause</t>
   </si>
   <si>
     <t xml:space="preserve">condition</t>
   </si>
   <si>
     <t xml:space="preserve">display.prompt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
   </si>
   <si>
     <t xml:space="preserve">name</t>
@@ -2094,6 +2276,9 @@
     <t xml:space="preserve">calculation</t>
   </si>
   <si>
+    <t xml:space="preserve">display.prompt.text</t>
+  </si>
+  <si>
     <t xml:space="preserve">model.isSessionVariable</t>
   </si>
   <si>
@@ -2103,7 +2288,7 @@
     <t xml:space="preserve">templatePath</t>
   </si>
   <si>
-    <t xml:space="preserve">inputAttributes.type</t>
+    <t xml:space="preserve">appearance</t>
   </si>
   <si>
     <t xml:space="preserve">inputAttributes.min</t>
@@ -2133,13 +2318,13 @@
     <t xml:space="preserve">researcherName</t>
   </si>
   <si>
-    <t xml:space="preserve">isChild</t>
+    <t xml:space="preserve">end screen</t>
   </si>
   <si>
-    <t xml:space="preserve">over18</t>
+    <t xml:space="preserve">if</t>
   </si>
   <si>
-    <t xml:space="preserve">end screen</t>
+    <t xml:space="preserve">calculates.is_adult()</t>
   </si>
   <si>
     <t xml:space="preserve">text</t>
@@ -2151,13 +2336,37 @@
     <t xml:space="preserve">agreeToInterview</t>
   </si>
   <si>
+    <t xml:space="preserve">calculates.gave_consent()</t>
+  </si>
+  <si>
     <t xml:space="preserve">select_multiple</t>
   </si>
   <si>
     <t xml:space="preserve">contactMethod</t>
   </si>
   <si>
+    <t xml:space="preserve">calculates.other_preferred_contact()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contactMethodOther</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">penSignature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">else</t>
+  </si>
+  <si>
     <t xml:space="preserve">reasonRefusal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculates.other_reason_refusal()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reasonRefusalOther</t>
   </si>
   <si>
     <t xml:space="preserve">anyQuestionsRefusal</t>
@@ -2172,13 +2381,7 @@
     <t xml:space="preserve">data_value</t>
   </si>
   <si>
-    <t xml:space="preserve">amm</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alys McAlpine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kma</t>
   </si>
   <si>
     <t xml:space="preserve">Khin Maung Aye</t>
@@ -2283,49 +2486,6 @@
     <t xml:space="preserve">other</t>
   </si>
   <si>
-    <t xml:space="preserve">Other: Specify*</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">အခြားနည်းလမ်း</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ဖော်ပြရန်</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">do_not_want_interview</t>
   </si>
   <si>
@@ -2380,55 +2540,37 @@
     <t xml:space="preserve">မမှာ ဒီနေ့ အချိန်မအားလို့ပါ</t>
   </si>
   <si>
-    <t xml:space="preserve">Other</t>
+    <t xml:space="preserve">comment</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">အခြား</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ဖော်ပြရန်</t>
-    </r>
+    <t xml:space="preserve">image</t>
   </si>
   <si>
-    <t xml:space="preserve">comment</t>
+    <t xml:space="preserve">handSignature</t>
   </si>
   <si>
     <t xml:space="preserve">calculation_name</t>
   </si>
   <si>
-    <t xml:space="preserve">is_child</t>
+    <t xml:space="preserve">is_adult</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(data("isChild"), "no")</t>
+    <t xml:space="preserve">selected(data("isAdult"), "yes")</t>
   </si>
   <si>
     <t xml:space="preserve">gave_consent</t>
   </si>
   <si>
     <t xml:space="preserve">selected(data("agreeToInterview"), "yes")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data("contactMethod"), "other")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other_reason_refusal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data("reasonRefusal"), "other")</t>
   </si>
 </sst>
 </file>
@@ -2541,7 +2683,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2555,14 +2705,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2589,6 +2731,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2597,15 +2743,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2630,67 +2772,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:6"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9646464646465"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9747474747475"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.2272727272727"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.88383838383838"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -2699,100 +2780,99 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5656565656566"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8989898989899"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.9090909090909"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="8.15151515151515"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.7828282828283"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.6464646464646"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3636363636364"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8282828282828"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="18.5757575757576"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="20.3131313131313"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>7</v>
+    <row r="1" s="4" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>10</v>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
+      <c r="A2" s="5" t="s">
+        <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
+      <c r="A3" s="5" t="s">
+        <v>8</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="5" t="n">
         <v>20130408</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
+      <c r="A4" s="6" t="s">
+        <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>17</v>
+      <c r="A5" s="5" t="s">
+        <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="5"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
+      <c r="A7" s="5" t="s">
+        <v>12</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="8"/>
-      <c r="H7" s="3" t="s">
-        <v>20</v>
+      <c r="H7" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
+      <c r="A8" s="5" t="s">
+        <v>14</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="8"/>
-      <c r="H8" s="3" t="s">
-        <v>22</v>
+      <c r="H8" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2807,38 +2887,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:59"/>
+  <dimension ref="1:62"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="32.2020202020202"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="49.3080808080808"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="49.7121212121212"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="126.545454545455"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="3" width="4.67676767676768"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="30.0656565656566"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="46.1010101010101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="46.3686868686869"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="118.530303030303"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="5" width="4.27777777777778"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>3</v>
+    <row r="1" s="2" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E1" s="10"/>
     </row>
@@ -3869,15 +3949,15 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E3" s="0"/>
       <c r="F3" s="0"/>
@@ -4901,15 +4981,15 @@
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
@@ -5935,13 +6015,13 @@
     <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0"/>
       <c r="B5" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>34</v>
+      <c r="D5" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
@@ -6967,13 +7047,13 @@
     <row r="6" customFormat="false" ht="197.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0"/>
       <c r="B6" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
@@ -7999,13 +8079,13 @@
     <row r="7" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0"/>
       <c r="B7" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E7" s="0"/>
       <c r="F7" s="0"/>
@@ -9031,13 +9111,13 @@
     <row r="8" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
       <c r="B8" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
@@ -10063,13 +10143,13 @@
     <row r="9" customFormat="false" ht="12.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
       <c r="B9" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -11092,16 +11172,16 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0"/>
       <c r="B10" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
@@ -12124,16 +12204,16 @@
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0"/>
       <c r="B11" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
@@ -13159,13 +13239,13 @@
     <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0"/>
       <c r="B12" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
@@ -14188,16 +14268,16 @@
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0"/>
       <c r="B13" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
@@ -15223,13 +15303,13 @@
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0"/>
       <c r="B14" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>61</v>
+      <c r="D14" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
@@ -16252,16 +16332,16 @@
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0"/>
       <c r="B15" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -17284,16 +17364,16 @@
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="204.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0"/>
       <c r="B16" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -18316,16 +18396,16 @@
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="204.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0"/>
       <c r="B17" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -19348,16 +19428,16 @@
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0"/>
       <c r="B18" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
@@ -20380,16 +20460,16 @@
       <c r="AMI18" s="0"/>
       <c r="AMJ18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
       <c r="B19" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -21412,16 +21492,16 @@
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0"/>
       <c r="B20" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
@@ -22444,16 +22524,16 @@
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0"/>
       <c r="B21" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
@@ -23476,16 +23556,16 @@
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0"/>
       <c r="B22" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E22" s="0"/>
       <c r="F22" s="0"/>
@@ -24508,16 +24588,16 @@
       <c r="AMI22" s="0"/>
       <c r="AMJ22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0"/>
-      <c r="B23" s="7" t="s">
-        <v>86</v>
+      <c r="B23" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>88</v>
+      <c r="D23" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="E23" s="0"/>
       <c r="F23" s="0"/>
@@ -25540,16 +25620,16 @@
       <c r="AMI23" s="0"/>
       <c r="AMJ23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0"/>
       <c r="B24" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E24" s="0"/>
       <c r="F24" s="0"/>
@@ -26572,16 +26652,16 @@
       <c r="AMI24" s="0"/>
       <c r="AMJ24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0"/>
-      <c r="B25" s="7" t="s">
-        <v>92</v>
+      <c r="B25" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E25" s="0"/>
       <c r="F25" s="0"/>
@@ -27604,16 +27684,16 @@
       <c r="AMI25" s="0"/>
       <c r="AMJ25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0"/>
       <c r="B26" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E26" s="0"/>
       <c r="F26" s="0"/>
@@ -28636,16 +28716,16 @@
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0"/>
       <c r="B27" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>100</v>
+      <c r="D27" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="E27" s="0"/>
       <c r="F27" s="0"/>
@@ -29668,11 +29748,17 @@
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="0"/>
+      <c r="B28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="E28" s="0"/>
       <c r="F28" s="0"/>
       <c r="G28" s="0"/>
@@ -30694,16 +30780,16 @@
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0"/>
-      <c r="B29" s="9" t="s">
-        <v>101</v>
+      <c r="B29" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>102</v>
+      <c r="D29" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="E29" s="0"/>
       <c r="F29" s="0"/>
@@ -31729,13 +31815,13 @@
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0"/>
       <c r="B30" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E30" s="0"/>
       <c r="F30" s="0"/>
@@ -32758,17 +32844,11 @@
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0"/>
-      <c r="B31" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>106</v>
-      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="0"/>
       <c r="E31" s="0"/>
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
@@ -33793,13 +33873,13 @@
     <row r="32" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0"/>
       <c r="B32" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E32" s="0"/>
       <c r="F32" s="0"/>
@@ -34822,103 +34902,3191 @@
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0"/>
+      <c r="B33" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
+      <c r="M33" s="0"/>
+      <c r="N33" s="0"/>
+      <c r="O33" s="0"/>
+      <c r="P33" s="0"/>
+      <c r="Q33" s="0"/>
+      <c r="R33" s="0"/>
+      <c r="S33" s="0"/>
+      <c r="T33" s="0"/>
+      <c r="U33" s="0"/>
+      <c r="V33" s="0"/>
+      <c r="W33" s="0"/>
+      <c r="X33" s="0"/>
+      <c r="Y33" s="0"/>
+      <c r="Z33" s="0"/>
+      <c r="AA33" s="0"/>
+      <c r="AB33" s="0"/>
+      <c r="AC33" s="0"/>
+      <c r="AD33" s="0"/>
+      <c r="AE33" s="0"/>
+      <c r="AF33" s="0"/>
+      <c r="AG33" s="0"/>
+      <c r="AH33" s="0"/>
+      <c r="AI33" s="0"/>
+      <c r="AJ33" s="0"/>
+      <c r="AK33" s="0"/>
+      <c r="AL33" s="0"/>
+      <c r="AM33" s="0"/>
+      <c r="AN33" s="0"/>
+      <c r="AO33" s="0"/>
+      <c r="AP33" s="0"/>
+      <c r="AQ33" s="0"/>
+      <c r="AR33" s="0"/>
+      <c r="AS33" s="0"/>
+      <c r="AT33" s="0"/>
+      <c r="AU33" s="0"/>
+      <c r="AV33" s="0"/>
+      <c r="AW33" s="0"/>
+      <c r="AX33" s="0"/>
+      <c r="AY33" s="0"/>
+      <c r="AZ33" s="0"/>
+      <c r="BA33" s="0"/>
+      <c r="BB33" s="0"/>
+      <c r="BC33" s="0"/>
+      <c r="BD33" s="0"/>
+      <c r="BE33" s="0"/>
+      <c r="BF33" s="0"/>
+      <c r="BG33" s="0"/>
+      <c r="BH33" s="0"/>
+      <c r="BI33" s="0"/>
+      <c r="BJ33" s="0"/>
+      <c r="BK33" s="0"/>
+      <c r="BL33" s="0"/>
+      <c r="BM33" s="0"/>
+      <c r="BN33" s="0"/>
+      <c r="BO33" s="0"/>
+      <c r="BP33" s="0"/>
+      <c r="BQ33" s="0"/>
+      <c r="BR33" s="0"/>
+      <c r="BS33" s="0"/>
+      <c r="BT33" s="0"/>
+      <c r="BU33" s="0"/>
+      <c r="BV33" s="0"/>
+      <c r="BW33" s="0"/>
+      <c r="BX33" s="0"/>
+      <c r="BY33" s="0"/>
+      <c r="BZ33" s="0"/>
+      <c r="CA33" s="0"/>
+      <c r="CB33" s="0"/>
+      <c r="CC33" s="0"/>
+      <c r="CD33" s="0"/>
+      <c r="CE33" s="0"/>
+      <c r="CF33" s="0"/>
+      <c r="CG33" s="0"/>
+      <c r="CH33" s="0"/>
+      <c r="CI33" s="0"/>
+      <c r="CJ33" s="0"/>
+      <c r="CK33" s="0"/>
+      <c r="CL33" s="0"/>
+      <c r="CM33" s="0"/>
+      <c r="CN33" s="0"/>
+      <c r="CO33" s="0"/>
+      <c r="CP33" s="0"/>
+      <c r="CQ33" s="0"/>
+      <c r="CR33" s="0"/>
+      <c r="CS33" s="0"/>
+      <c r="CT33" s="0"/>
+      <c r="CU33" s="0"/>
+      <c r="CV33" s="0"/>
+      <c r="CW33" s="0"/>
+      <c r="CX33" s="0"/>
+      <c r="CY33" s="0"/>
+      <c r="CZ33" s="0"/>
+      <c r="DA33" s="0"/>
+      <c r="DB33" s="0"/>
+      <c r="DC33" s="0"/>
+      <c r="DD33" s="0"/>
+      <c r="DE33" s="0"/>
+      <c r="DF33" s="0"/>
+      <c r="DG33" s="0"/>
+      <c r="DH33" s="0"/>
+      <c r="DI33" s="0"/>
+      <c r="DJ33" s="0"/>
+      <c r="DK33" s="0"/>
+      <c r="DL33" s="0"/>
+      <c r="DM33" s="0"/>
+      <c r="DN33" s="0"/>
+      <c r="DO33" s="0"/>
+      <c r="DP33" s="0"/>
+      <c r="DQ33" s="0"/>
+      <c r="DR33" s="0"/>
+      <c r="DS33" s="0"/>
+      <c r="DT33" s="0"/>
+      <c r="DU33" s="0"/>
+      <c r="DV33" s="0"/>
+      <c r="DW33" s="0"/>
+      <c r="DX33" s="0"/>
+      <c r="DY33" s="0"/>
+      <c r="DZ33" s="0"/>
+      <c r="EA33" s="0"/>
+      <c r="EB33" s="0"/>
+      <c r="EC33" s="0"/>
+      <c r="ED33" s="0"/>
+      <c r="EE33" s="0"/>
+      <c r="EF33" s="0"/>
+      <c r="EG33" s="0"/>
+      <c r="EH33" s="0"/>
+      <c r="EI33" s="0"/>
+      <c r="EJ33" s="0"/>
+      <c r="EK33" s="0"/>
+      <c r="EL33" s="0"/>
+      <c r="EM33" s="0"/>
+      <c r="EN33" s="0"/>
+      <c r="EO33" s="0"/>
+      <c r="EP33" s="0"/>
+      <c r="EQ33" s="0"/>
+      <c r="ER33" s="0"/>
+      <c r="ES33" s="0"/>
+      <c r="ET33" s="0"/>
+      <c r="EU33" s="0"/>
+      <c r="EV33" s="0"/>
+      <c r="EW33" s="0"/>
+      <c r="EX33" s="0"/>
+      <c r="EY33" s="0"/>
+      <c r="EZ33" s="0"/>
+      <c r="FA33" s="0"/>
+      <c r="FB33" s="0"/>
+      <c r="FC33" s="0"/>
+      <c r="FD33" s="0"/>
+      <c r="FE33" s="0"/>
+      <c r="FF33" s="0"/>
+      <c r="FG33" s="0"/>
+      <c r="FH33" s="0"/>
+      <c r="FI33" s="0"/>
+      <c r="FJ33" s="0"/>
+      <c r="FK33" s="0"/>
+      <c r="FL33" s="0"/>
+      <c r="FM33" s="0"/>
+      <c r="FN33" s="0"/>
+      <c r="FO33" s="0"/>
+      <c r="FP33" s="0"/>
+      <c r="FQ33" s="0"/>
+      <c r="FR33" s="0"/>
+      <c r="FS33" s="0"/>
+      <c r="FT33" s="0"/>
+      <c r="FU33" s="0"/>
+      <c r="FV33" s="0"/>
+      <c r="FW33" s="0"/>
+      <c r="FX33" s="0"/>
+      <c r="FY33" s="0"/>
+      <c r="FZ33" s="0"/>
+      <c r="GA33" s="0"/>
+      <c r="GB33" s="0"/>
+      <c r="GC33" s="0"/>
+      <c r="GD33" s="0"/>
+      <c r="GE33" s="0"/>
+      <c r="GF33" s="0"/>
+      <c r="GG33" s="0"/>
+      <c r="GH33" s="0"/>
+      <c r="GI33" s="0"/>
+      <c r="GJ33" s="0"/>
+      <c r="GK33" s="0"/>
+      <c r="GL33" s="0"/>
+      <c r="GM33" s="0"/>
+      <c r="GN33" s="0"/>
+      <c r="GO33" s="0"/>
+      <c r="GP33" s="0"/>
+      <c r="GQ33" s="0"/>
+      <c r="GR33" s="0"/>
+      <c r="GS33" s="0"/>
+      <c r="GT33" s="0"/>
+      <c r="GU33" s="0"/>
+      <c r="GV33" s="0"/>
+      <c r="GW33" s="0"/>
+      <c r="GX33" s="0"/>
+      <c r="GY33" s="0"/>
+      <c r="GZ33" s="0"/>
+      <c r="HA33" s="0"/>
+      <c r="HB33" s="0"/>
+      <c r="HC33" s="0"/>
+      <c r="HD33" s="0"/>
+      <c r="HE33" s="0"/>
+      <c r="HF33" s="0"/>
+      <c r="HG33" s="0"/>
+      <c r="HH33" s="0"/>
+      <c r="HI33" s="0"/>
+      <c r="HJ33" s="0"/>
+      <c r="HK33" s="0"/>
+      <c r="HL33" s="0"/>
+      <c r="HM33" s="0"/>
+      <c r="HN33" s="0"/>
+      <c r="HO33" s="0"/>
+      <c r="HP33" s="0"/>
+      <c r="HQ33" s="0"/>
+      <c r="HR33" s="0"/>
+      <c r="HS33" s="0"/>
+      <c r="HT33" s="0"/>
+      <c r="HU33" s="0"/>
+      <c r="HV33" s="0"/>
+      <c r="HW33" s="0"/>
+      <c r="HX33" s="0"/>
+      <c r="HY33" s="0"/>
+      <c r="HZ33" s="0"/>
+      <c r="IA33" s="0"/>
+      <c r="IB33" s="0"/>
+      <c r="IC33" s="0"/>
+      <c r="ID33" s="0"/>
+      <c r="IE33" s="0"/>
+      <c r="IF33" s="0"/>
+      <c r="IG33" s="0"/>
+      <c r="IH33" s="0"/>
+      <c r="II33" s="0"/>
+      <c r="IJ33" s="0"/>
+      <c r="IK33" s="0"/>
+      <c r="IL33" s="0"/>
+      <c r="IM33" s="0"/>
+      <c r="IN33" s="0"/>
+      <c r="IO33" s="0"/>
+      <c r="IP33" s="0"/>
+      <c r="IQ33" s="0"/>
+      <c r="IR33" s="0"/>
+      <c r="IS33" s="0"/>
+      <c r="IT33" s="0"/>
+      <c r="IU33" s="0"/>
+      <c r="IV33" s="0"/>
+      <c r="IW33" s="0"/>
+      <c r="IX33" s="0"/>
+      <c r="IY33" s="0"/>
+      <c r="IZ33" s="0"/>
+      <c r="JA33" s="0"/>
+      <c r="JB33" s="0"/>
+      <c r="JC33" s="0"/>
+      <c r="JD33" s="0"/>
+      <c r="JE33" s="0"/>
+      <c r="JF33" s="0"/>
+      <c r="JG33" s="0"/>
+      <c r="JH33" s="0"/>
+      <c r="JI33" s="0"/>
+      <c r="JJ33" s="0"/>
+      <c r="JK33" s="0"/>
+      <c r="JL33" s="0"/>
+      <c r="JM33" s="0"/>
+      <c r="JN33" s="0"/>
+      <c r="JO33" s="0"/>
+      <c r="JP33" s="0"/>
+      <c r="JQ33" s="0"/>
+      <c r="JR33" s="0"/>
+      <c r="JS33" s="0"/>
+      <c r="JT33" s="0"/>
+      <c r="JU33" s="0"/>
+      <c r="JV33" s="0"/>
+      <c r="JW33" s="0"/>
+      <c r="JX33" s="0"/>
+      <c r="JY33" s="0"/>
+      <c r="JZ33" s="0"/>
+      <c r="KA33" s="0"/>
+      <c r="KB33" s="0"/>
+      <c r="KC33" s="0"/>
+      <c r="KD33" s="0"/>
+      <c r="KE33" s="0"/>
+      <c r="KF33" s="0"/>
+      <c r="KG33" s="0"/>
+      <c r="KH33" s="0"/>
+      <c r="KI33" s="0"/>
+      <c r="KJ33" s="0"/>
+      <c r="KK33" s="0"/>
+      <c r="KL33" s="0"/>
+      <c r="KM33" s="0"/>
+      <c r="KN33" s="0"/>
+      <c r="KO33" s="0"/>
+      <c r="KP33" s="0"/>
+      <c r="KQ33" s="0"/>
+      <c r="KR33" s="0"/>
+      <c r="KS33" s="0"/>
+      <c r="KT33" s="0"/>
+      <c r="KU33" s="0"/>
+      <c r="KV33" s="0"/>
+      <c r="KW33" s="0"/>
+      <c r="KX33" s="0"/>
+      <c r="KY33" s="0"/>
+      <c r="KZ33" s="0"/>
+      <c r="LA33" s="0"/>
+      <c r="LB33" s="0"/>
+      <c r="LC33" s="0"/>
+      <c r="LD33" s="0"/>
+      <c r="LE33" s="0"/>
+      <c r="LF33" s="0"/>
+      <c r="LG33" s="0"/>
+      <c r="LH33" s="0"/>
+      <c r="LI33" s="0"/>
+      <c r="LJ33" s="0"/>
+      <c r="LK33" s="0"/>
+      <c r="LL33" s="0"/>
+      <c r="LM33" s="0"/>
+      <c r="LN33" s="0"/>
+      <c r="LO33" s="0"/>
+      <c r="LP33" s="0"/>
+      <c r="LQ33" s="0"/>
+      <c r="LR33" s="0"/>
+      <c r="LS33" s="0"/>
+      <c r="LT33" s="0"/>
+      <c r="LU33" s="0"/>
+      <c r="LV33" s="0"/>
+      <c r="LW33" s="0"/>
+      <c r="LX33" s="0"/>
+      <c r="LY33" s="0"/>
+      <c r="LZ33" s="0"/>
+      <c r="MA33" s="0"/>
+      <c r="MB33" s="0"/>
+      <c r="MC33" s="0"/>
+      <c r="MD33" s="0"/>
+      <c r="ME33" s="0"/>
+      <c r="MF33" s="0"/>
+      <c r="MG33" s="0"/>
+      <c r="MH33" s="0"/>
+      <c r="MI33" s="0"/>
+      <c r="MJ33" s="0"/>
+      <c r="MK33" s="0"/>
+      <c r="ML33" s="0"/>
+      <c r="MM33" s="0"/>
+      <c r="MN33" s="0"/>
+      <c r="MO33" s="0"/>
+      <c r="MP33" s="0"/>
+      <c r="MQ33" s="0"/>
+      <c r="MR33" s="0"/>
+      <c r="MS33" s="0"/>
+      <c r="MT33" s="0"/>
+      <c r="MU33" s="0"/>
+      <c r="MV33" s="0"/>
+      <c r="MW33" s="0"/>
+      <c r="MX33" s="0"/>
+      <c r="MY33" s="0"/>
+      <c r="MZ33" s="0"/>
+      <c r="NA33" s="0"/>
+      <c r="NB33" s="0"/>
+      <c r="NC33" s="0"/>
+      <c r="ND33" s="0"/>
+      <c r="NE33" s="0"/>
+      <c r="NF33" s="0"/>
+      <c r="NG33" s="0"/>
+      <c r="NH33" s="0"/>
+      <c r="NI33" s="0"/>
+      <c r="NJ33" s="0"/>
+      <c r="NK33" s="0"/>
+      <c r="NL33" s="0"/>
+      <c r="NM33" s="0"/>
+      <c r="NN33" s="0"/>
+      <c r="NO33" s="0"/>
+      <c r="NP33" s="0"/>
+      <c r="NQ33" s="0"/>
+      <c r="NR33" s="0"/>
+      <c r="NS33" s="0"/>
+      <c r="NT33" s="0"/>
+      <c r="NU33" s="0"/>
+      <c r="NV33" s="0"/>
+      <c r="NW33" s="0"/>
+      <c r="NX33" s="0"/>
+      <c r="NY33" s="0"/>
+      <c r="NZ33" s="0"/>
+      <c r="OA33" s="0"/>
+      <c r="OB33" s="0"/>
+      <c r="OC33" s="0"/>
+      <c r="OD33" s="0"/>
+      <c r="OE33" s="0"/>
+      <c r="OF33" s="0"/>
+      <c r="OG33" s="0"/>
+      <c r="OH33" s="0"/>
+      <c r="OI33" s="0"/>
+      <c r="OJ33" s="0"/>
+      <c r="OK33" s="0"/>
+      <c r="OL33" s="0"/>
+      <c r="OM33" s="0"/>
+      <c r="ON33" s="0"/>
+      <c r="OO33" s="0"/>
+      <c r="OP33" s="0"/>
+      <c r="OQ33" s="0"/>
+      <c r="OR33" s="0"/>
+      <c r="OS33" s="0"/>
+      <c r="OT33" s="0"/>
+      <c r="OU33" s="0"/>
+      <c r="OV33" s="0"/>
+      <c r="OW33" s="0"/>
+      <c r="OX33" s="0"/>
+      <c r="OY33" s="0"/>
+      <c r="OZ33" s="0"/>
+      <c r="PA33" s="0"/>
+      <c r="PB33" s="0"/>
+      <c r="PC33" s="0"/>
+      <c r="PD33" s="0"/>
+      <c r="PE33" s="0"/>
+      <c r="PF33" s="0"/>
+      <c r="PG33" s="0"/>
+      <c r="PH33" s="0"/>
+      <c r="PI33" s="0"/>
+      <c r="PJ33" s="0"/>
+      <c r="PK33" s="0"/>
+      <c r="PL33" s="0"/>
+      <c r="PM33" s="0"/>
+      <c r="PN33" s="0"/>
+      <c r="PO33" s="0"/>
+      <c r="PP33" s="0"/>
+      <c r="PQ33" s="0"/>
+      <c r="PR33" s="0"/>
+      <c r="PS33" s="0"/>
+      <c r="PT33" s="0"/>
+      <c r="PU33" s="0"/>
+      <c r="PV33" s="0"/>
+      <c r="PW33" s="0"/>
+      <c r="PX33" s="0"/>
+      <c r="PY33" s="0"/>
+      <c r="PZ33" s="0"/>
+      <c r="QA33" s="0"/>
+      <c r="QB33" s="0"/>
+      <c r="QC33" s="0"/>
+      <c r="QD33" s="0"/>
+      <c r="QE33" s="0"/>
+      <c r="QF33" s="0"/>
+      <c r="QG33" s="0"/>
+      <c r="QH33" s="0"/>
+      <c r="QI33" s="0"/>
+      <c r="QJ33" s="0"/>
+      <c r="QK33" s="0"/>
+      <c r="QL33" s="0"/>
+      <c r="QM33" s="0"/>
+      <c r="QN33" s="0"/>
+      <c r="QO33" s="0"/>
+      <c r="QP33" s="0"/>
+      <c r="QQ33" s="0"/>
+      <c r="QR33" s="0"/>
+      <c r="QS33" s="0"/>
+      <c r="QT33" s="0"/>
+      <c r="QU33" s="0"/>
+      <c r="QV33" s="0"/>
+      <c r="QW33" s="0"/>
+      <c r="QX33" s="0"/>
+      <c r="QY33" s="0"/>
+      <c r="QZ33" s="0"/>
+      <c r="RA33" s="0"/>
+      <c r="RB33" s="0"/>
+      <c r="RC33" s="0"/>
+      <c r="RD33" s="0"/>
+      <c r="RE33" s="0"/>
+      <c r="RF33" s="0"/>
+      <c r="RG33" s="0"/>
+      <c r="RH33" s="0"/>
+      <c r="RI33" s="0"/>
+      <c r="RJ33" s="0"/>
+      <c r="RK33" s="0"/>
+      <c r="RL33" s="0"/>
+      <c r="RM33" s="0"/>
+      <c r="RN33" s="0"/>
+      <c r="RO33" s="0"/>
+      <c r="RP33" s="0"/>
+      <c r="RQ33" s="0"/>
+      <c r="RR33" s="0"/>
+      <c r="RS33" s="0"/>
+      <c r="RT33" s="0"/>
+      <c r="RU33" s="0"/>
+      <c r="RV33" s="0"/>
+      <c r="RW33" s="0"/>
+      <c r="RX33" s="0"/>
+      <c r="RY33" s="0"/>
+      <c r="RZ33" s="0"/>
+      <c r="SA33" s="0"/>
+      <c r="SB33" s="0"/>
+      <c r="SC33" s="0"/>
+      <c r="SD33" s="0"/>
+      <c r="SE33" s="0"/>
+      <c r="SF33" s="0"/>
+      <c r="SG33" s="0"/>
+      <c r="SH33" s="0"/>
+      <c r="SI33" s="0"/>
+      <c r="SJ33" s="0"/>
+      <c r="SK33" s="0"/>
+      <c r="SL33" s="0"/>
+      <c r="SM33" s="0"/>
+      <c r="SN33" s="0"/>
+      <c r="SO33" s="0"/>
+      <c r="SP33" s="0"/>
+      <c r="SQ33" s="0"/>
+      <c r="SR33" s="0"/>
+      <c r="SS33" s="0"/>
+      <c r="ST33" s="0"/>
+      <c r="SU33" s="0"/>
+      <c r="SV33" s="0"/>
+      <c r="SW33" s="0"/>
+      <c r="SX33" s="0"/>
+      <c r="SY33" s="0"/>
+      <c r="SZ33" s="0"/>
+      <c r="TA33" s="0"/>
+      <c r="TB33" s="0"/>
+      <c r="TC33" s="0"/>
+      <c r="TD33" s="0"/>
+      <c r="TE33" s="0"/>
+      <c r="TF33" s="0"/>
+      <c r="TG33" s="0"/>
+      <c r="TH33" s="0"/>
+      <c r="TI33" s="0"/>
+      <c r="TJ33" s="0"/>
+      <c r="TK33" s="0"/>
+      <c r="TL33" s="0"/>
+      <c r="TM33" s="0"/>
+      <c r="TN33" s="0"/>
+      <c r="TO33" s="0"/>
+      <c r="TP33" s="0"/>
+      <c r="TQ33" s="0"/>
+      <c r="TR33" s="0"/>
+      <c r="TS33" s="0"/>
+      <c r="TT33" s="0"/>
+      <c r="TU33" s="0"/>
+      <c r="TV33" s="0"/>
+      <c r="TW33" s="0"/>
+      <c r="TX33" s="0"/>
+      <c r="TY33" s="0"/>
+      <c r="TZ33" s="0"/>
+      <c r="UA33" s="0"/>
+      <c r="UB33" s="0"/>
+      <c r="UC33" s="0"/>
+      <c r="UD33" s="0"/>
+      <c r="UE33" s="0"/>
+      <c r="UF33" s="0"/>
+      <c r="UG33" s="0"/>
+      <c r="UH33" s="0"/>
+      <c r="UI33" s="0"/>
+      <c r="UJ33" s="0"/>
+      <c r="UK33" s="0"/>
+      <c r="UL33" s="0"/>
+      <c r="UM33" s="0"/>
+      <c r="UN33" s="0"/>
+      <c r="UO33" s="0"/>
+      <c r="UP33" s="0"/>
+      <c r="UQ33" s="0"/>
+      <c r="UR33" s="0"/>
+      <c r="US33" s="0"/>
+      <c r="UT33" s="0"/>
+      <c r="UU33" s="0"/>
+      <c r="UV33" s="0"/>
+      <c r="UW33" s="0"/>
+      <c r="UX33" s="0"/>
+      <c r="UY33" s="0"/>
+      <c r="UZ33" s="0"/>
+      <c r="VA33" s="0"/>
+      <c r="VB33" s="0"/>
+      <c r="VC33" s="0"/>
+      <c r="VD33" s="0"/>
+      <c r="VE33" s="0"/>
+      <c r="VF33" s="0"/>
+      <c r="VG33" s="0"/>
+      <c r="VH33" s="0"/>
+      <c r="VI33" s="0"/>
+      <c r="VJ33" s="0"/>
+      <c r="VK33" s="0"/>
+      <c r="VL33" s="0"/>
+      <c r="VM33" s="0"/>
+      <c r="VN33" s="0"/>
+      <c r="VO33" s="0"/>
+      <c r="VP33" s="0"/>
+      <c r="VQ33" s="0"/>
+      <c r="VR33" s="0"/>
+      <c r="VS33" s="0"/>
+      <c r="VT33" s="0"/>
+      <c r="VU33" s="0"/>
+      <c r="VV33" s="0"/>
+      <c r="VW33" s="0"/>
+      <c r="VX33" s="0"/>
+      <c r="VY33" s="0"/>
+      <c r="VZ33" s="0"/>
+      <c r="WA33" s="0"/>
+      <c r="WB33" s="0"/>
+      <c r="WC33" s="0"/>
+      <c r="WD33" s="0"/>
+      <c r="WE33" s="0"/>
+      <c r="WF33" s="0"/>
+      <c r="WG33" s="0"/>
+      <c r="WH33" s="0"/>
+      <c r="WI33" s="0"/>
+      <c r="WJ33" s="0"/>
+      <c r="WK33" s="0"/>
+      <c r="WL33" s="0"/>
+      <c r="WM33" s="0"/>
+      <c r="WN33" s="0"/>
+      <c r="WO33" s="0"/>
+      <c r="WP33" s="0"/>
+      <c r="WQ33" s="0"/>
+      <c r="WR33" s="0"/>
+      <c r="WS33" s="0"/>
+      <c r="WT33" s="0"/>
+      <c r="WU33" s="0"/>
+      <c r="WV33" s="0"/>
+      <c r="WW33" s="0"/>
+      <c r="WX33" s="0"/>
+      <c r="WY33" s="0"/>
+      <c r="WZ33" s="0"/>
+      <c r="XA33" s="0"/>
+      <c r="XB33" s="0"/>
+      <c r="XC33" s="0"/>
+      <c r="XD33" s="0"/>
+      <c r="XE33" s="0"/>
+      <c r="XF33" s="0"/>
+      <c r="XG33" s="0"/>
+      <c r="XH33" s="0"/>
+      <c r="XI33" s="0"/>
+      <c r="XJ33" s="0"/>
+      <c r="XK33" s="0"/>
+      <c r="XL33" s="0"/>
+      <c r="XM33" s="0"/>
+      <c r="XN33" s="0"/>
+      <c r="XO33" s="0"/>
+      <c r="XP33" s="0"/>
+      <c r="XQ33" s="0"/>
+      <c r="XR33" s="0"/>
+      <c r="XS33" s="0"/>
+      <c r="XT33" s="0"/>
+      <c r="XU33" s="0"/>
+      <c r="XV33" s="0"/>
+      <c r="XW33" s="0"/>
+      <c r="XX33" s="0"/>
+      <c r="XY33" s="0"/>
+      <c r="XZ33" s="0"/>
+      <c r="YA33" s="0"/>
+      <c r="YB33" s="0"/>
+      <c r="YC33" s="0"/>
+      <c r="YD33" s="0"/>
+      <c r="YE33" s="0"/>
+      <c r="YF33" s="0"/>
+      <c r="YG33" s="0"/>
+      <c r="YH33" s="0"/>
+      <c r="YI33" s="0"/>
+      <c r="YJ33" s="0"/>
+      <c r="YK33" s="0"/>
+      <c r="YL33" s="0"/>
+      <c r="YM33" s="0"/>
+      <c r="YN33" s="0"/>
+      <c r="YO33" s="0"/>
+      <c r="YP33" s="0"/>
+      <c r="YQ33" s="0"/>
+      <c r="YR33" s="0"/>
+      <c r="YS33" s="0"/>
+      <c r="YT33" s="0"/>
+      <c r="YU33" s="0"/>
+      <c r="YV33" s="0"/>
+      <c r="YW33" s="0"/>
+      <c r="YX33" s="0"/>
+      <c r="YY33" s="0"/>
+      <c r="YZ33" s="0"/>
+      <c r="ZA33" s="0"/>
+      <c r="ZB33" s="0"/>
+      <c r="ZC33" s="0"/>
+      <c r="ZD33" s="0"/>
+      <c r="ZE33" s="0"/>
+      <c r="ZF33" s="0"/>
+      <c r="ZG33" s="0"/>
+      <c r="ZH33" s="0"/>
+      <c r="ZI33" s="0"/>
+      <c r="ZJ33" s="0"/>
+      <c r="ZK33" s="0"/>
+      <c r="ZL33" s="0"/>
+      <c r="ZM33" s="0"/>
+      <c r="ZN33" s="0"/>
+      <c r="ZO33" s="0"/>
+      <c r="ZP33" s="0"/>
+      <c r="ZQ33" s="0"/>
+      <c r="ZR33" s="0"/>
+      <c r="ZS33" s="0"/>
+      <c r="ZT33" s="0"/>
+      <c r="ZU33" s="0"/>
+      <c r="ZV33" s="0"/>
+      <c r="ZW33" s="0"/>
+      <c r="ZX33" s="0"/>
+      <c r="ZY33" s="0"/>
+      <c r="ZZ33" s="0"/>
+      <c r="AAA33" s="0"/>
+      <c r="AAB33" s="0"/>
+      <c r="AAC33" s="0"/>
+      <c r="AAD33" s="0"/>
+      <c r="AAE33" s="0"/>
+      <c r="AAF33" s="0"/>
+      <c r="AAG33" s="0"/>
+      <c r="AAH33" s="0"/>
+      <c r="AAI33" s="0"/>
+      <c r="AAJ33" s="0"/>
+      <c r="AAK33" s="0"/>
+      <c r="AAL33" s="0"/>
+      <c r="AAM33" s="0"/>
+      <c r="AAN33" s="0"/>
+      <c r="AAO33" s="0"/>
+      <c r="AAP33" s="0"/>
+      <c r="AAQ33" s="0"/>
+      <c r="AAR33" s="0"/>
+      <c r="AAS33" s="0"/>
+      <c r="AAT33" s="0"/>
+      <c r="AAU33" s="0"/>
+      <c r="AAV33" s="0"/>
+      <c r="AAW33" s="0"/>
+      <c r="AAX33" s="0"/>
+      <c r="AAY33" s="0"/>
+      <c r="AAZ33" s="0"/>
+      <c r="ABA33" s="0"/>
+      <c r="ABB33" s="0"/>
+      <c r="ABC33" s="0"/>
+      <c r="ABD33" s="0"/>
+      <c r="ABE33" s="0"/>
+      <c r="ABF33" s="0"/>
+      <c r="ABG33" s="0"/>
+      <c r="ABH33" s="0"/>
+      <c r="ABI33" s="0"/>
+      <c r="ABJ33" s="0"/>
+      <c r="ABK33" s="0"/>
+      <c r="ABL33" s="0"/>
+      <c r="ABM33" s="0"/>
+      <c r="ABN33" s="0"/>
+      <c r="ABO33" s="0"/>
+      <c r="ABP33" s="0"/>
+      <c r="ABQ33" s="0"/>
+      <c r="ABR33" s="0"/>
+      <c r="ABS33" s="0"/>
+      <c r="ABT33" s="0"/>
+      <c r="ABU33" s="0"/>
+      <c r="ABV33" s="0"/>
+      <c r="ABW33" s="0"/>
+      <c r="ABX33" s="0"/>
+      <c r="ABY33" s="0"/>
+      <c r="ABZ33" s="0"/>
+      <c r="ACA33" s="0"/>
+      <c r="ACB33" s="0"/>
+      <c r="ACC33" s="0"/>
+      <c r="ACD33" s="0"/>
+      <c r="ACE33" s="0"/>
+      <c r="ACF33" s="0"/>
+      <c r="ACG33" s="0"/>
+      <c r="ACH33" s="0"/>
+      <c r="ACI33" s="0"/>
+      <c r="ACJ33" s="0"/>
+      <c r="ACK33" s="0"/>
+      <c r="ACL33" s="0"/>
+      <c r="ACM33" s="0"/>
+      <c r="ACN33" s="0"/>
+      <c r="ACO33" s="0"/>
+      <c r="ACP33" s="0"/>
+      <c r="ACQ33" s="0"/>
+      <c r="ACR33" s="0"/>
+      <c r="ACS33" s="0"/>
+      <c r="ACT33" s="0"/>
+      <c r="ACU33" s="0"/>
+      <c r="ACV33" s="0"/>
+      <c r="ACW33" s="0"/>
+      <c r="ACX33" s="0"/>
+      <c r="ACY33" s="0"/>
+      <c r="ACZ33" s="0"/>
+      <c r="ADA33" s="0"/>
+      <c r="ADB33" s="0"/>
+      <c r="ADC33" s="0"/>
+      <c r="ADD33" s="0"/>
+      <c r="ADE33" s="0"/>
+      <c r="ADF33" s="0"/>
+      <c r="ADG33" s="0"/>
+      <c r="ADH33" s="0"/>
+      <c r="ADI33" s="0"/>
+      <c r="ADJ33" s="0"/>
+      <c r="ADK33" s="0"/>
+      <c r="ADL33" s="0"/>
+      <c r="ADM33" s="0"/>
+      <c r="ADN33" s="0"/>
+      <c r="ADO33" s="0"/>
+      <c r="ADP33" s="0"/>
+      <c r="ADQ33" s="0"/>
+      <c r="ADR33" s="0"/>
+      <c r="ADS33" s="0"/>
+      <c r="ADT33" s="0"/>
+      <c r="ADU33" s="0"/>
+      <c r="ADV33" s="0"/>
+      <c r="ADW33" s="0"/>
+      <c r="ADX33" s="0"/>
+      <c r="ADY33" s="0"/>
+      <c r="ADZ33" s="0"/>
+      <c r="AEA33" s="0"/>
+      <c r="AEB33" s="0"/>
+      <c r="AEC33" s="0"/>
+      <c r="AED33" s="0"/>
+      <c r="AEE33" s="0"/>
+      <c r="AEF33" s="0"/>
+      <c r="AEG33" s="0"/>
+      <c r="AEH33" s="0"/>
+      <c r="AEI33" s="0"/>
+      <c r="AEJ33" s="0"/>
+      <c r="AEK33" s="0"/>
+      <c r="AEL33" s="0"/>
+      <c r="AEM33" s="0"/>
+      <c r="AEN33" s="0"/>
+      <c r="AEO33" s="0"/>
+      <c r="AEP33" s="0"/>
+      <c r="AEQ33" s="0"/>
+      <c r="AER33" s="0"/>
+      <c r="AES33" s="0"/>
+      <c r="AET33" s="0"/>
+      <c r="AEU33" s="0"/>
+      <c r="AEV33" s="0"/>
+      <c r="AEW33" s="0"/>
+      <c r="AEX33" s="0"/>
+      <c r="AEY33" s="0"/>
+      <c r="AEZ33" s="0"/>
+      <c r="AFA33" s="0"/>
+      <c r="AFB33" s="0"/>
+      <c r="AFC33" s="0"/>
+      <c r="AFD33" s="0"/>
+      <c r="AFE33" s="0"/>
+      <c r="AFF33" s="0"/>
+      <c r="AFG33" s="0"/>
+      <c r="AFH33" s="0"/>
+      <c r="AFI33" s="0"/>
+      <c r="AFJ33" s="0"/>
+      <c r="AFK33" s="0"/>
+      <c r="AFL33" s="0"/>
+      <c r="AFM33" s="0"/>
+      <c r="AFN33" s="0"/>
+      <c r="AFO33" s="0"/>
+      <c r="AFP33" s="0"/>
+      <c r="AFQ33" s="0"/>
+      <c r="AFR33" s="0"/>
+      <c r="AFS33" s="0"/>
+      <c r="AFT33" s="0"/>
+      <c r="AFU33" s="0"/>
+      <c r="AFV33" s="0"/>
+      <c r="AFW33" s="0"/>
+      <c r="AFX33" s="0"/>
+      <c r="AFY33" s="0"/>
+      <c r="AFZ33" s="0"/>
+      <c r="AGA33" s="0"/>
+      <c r="AGB33" s="0"/>
+      <c r="AGC33" s="0"/>
+      <c r="AGD33" s="0"/>
+      <c r="AGE33" s="0"/>
+      <c r="AGF33" s="0"/>
+      <c r="AGG33" s="0"/>
+      <c r="AGH33" s="0"/>
+      <c r="AGI33" s="0"/>
+      <c r="AGJ33" s="0"/>
+      <c r="AGK33" s="0"/>
+      <c r="AGL33" s="0"/>
+      <c r="AGM33" s="0"/>
+      <c r="AGN33" s="0"/>
+      <c r="AGO33" s="0"/>
+      <c r="AGP33" s="0"/>
+      <c r="AGQ33" s="0"/>
+      <c r="AGR33" s="0"/>
+      <c r="AGS33" s="0"/>
+      <c r="AGT33" s="0"/>
+      <c r="AGU33" s="0"/>
+      <c r="AGV33" s="0"/>
+      <c r="AGW33" s="0"/>
+      <c r="AGX33" s="0"/>
+      <c r="AGY33" s="0"/>
+      <c r="AGZ33" s="0"/>
+      <c r="AHA33" s="0"/>
+      <c r="AHB33" s="0"/>
+      <c r="AHC33" s="0"/>
+      <c r="AHD33" s="0"/>
+      <c r="AHE33" s="0"/>
+      <c r="AHF33" s="0"/>
+      <c r="AHG33" s="0"/>
+      <c r="AHH33" s="0"/>
+      <c r="AHI33" s="0"/>
+      <c r="AHJ33" s="0"/>
+      <c r="AHK33" s="0"/>
+      <c r="AHL33" s="0"/>
+      <c r="AHM33" s="0"/>
+      <c r="AHN33" s="0"/>
+      <c r="AHO33" s="0"/>
+      <c r="AHP33" s="0"/>
+      <c r="AHQ33" s="0"/>
+      <c r="AHR33" s="0"/>
+      <c r="AHS33" s="0"/>
+      <c r="AHT33" s="0"/>
+      <c r="AHU33" s="0"/>
+      <c r="AHV33" s="0"/>
+      <c r="AHW33" s="0"/>
+      <c r="AHX33" s="0"/>
+      <c r="AHY33" s="0"/>
+      <c r="AHZ33" s="0"/>
+      <c r="AIA33" s="0"/>
+      <c r="AIB33" s="0"/>
+      <c r="AIC33" s="0"/>
+      <c r="AID33" s="0"/>
+      <c r="AIE33" s="0"/>
+      <c r="AIF33" s="0"/>
+      <c r="AIG33" s="0"/>
+      <c r="AIH33" s="0"/>
+      <c r="AII33" s="0"/>
+      <c r="AIJ33" s="0"/>
+      <c r="AIK33" s="0"/>
+      <c r="AIL33" s="0"/>
+      <c r="AIM33" s="0"/>
+      <c r="AIN33" s="0"/>
+      <c r="AIO33" s="0"/>
+      <c r="AIP33" s="0"/>
+      <c r="AIQ33" s="0"/>
+      <c r="AIR33" s="0"/>
+      <c r="AIS33" s="0"/>
+      <c r="AIT33" s="0"/>
+      <c r="AIU33" s="0"/>
+      <c r="AIV33" s="0"/>
+      <c r="AIW33" s="0"/>
+      <c r="AIX33" s="0"/>
+      <c r="AIY33" s="0"/>
+      <c r="AIZ33" s="0"/>
+      <c r="AJA33" s="0"/>
+      <c r="AJB33" s="0"/>
+      <c r="AJC33" s="0"/>
+      <c r="AJD33" s="0"/>
+      <c r="AJE33" s="0"/>
+      <c r="AJF33" s="0"/>
+      <c r="AJG33" s="0"/>
+      <c r="AJH33" s="0"/>
+      <c r="AJI33" s="0"/>
+      <c r="AJJ33" s="0"/>
+      <c r="AJK33" s="0"/>
+      <c r="AJL33" s="0"/>
+      <c r="AJM33" s="0"/>
+      <c r="AJN33" s="0"/>
+      <c r="AJO33" s="0"/>
+      <c r="AJP33" s="0"/>
+      <c r="AJQ33" s="0"/>
+      <c r="AJR33" s="0"/>
+      <c r="AJS33" s="0"/>
+      <c r="AJT33" s="0"/>
+      <c r="AJU33" s="0"/>
+      <c r="AJV33" s="0"/>
+      <c r="AJW33" s="0"/>
+      <c r="AJX33" s="0"/>
+      <c r="AJY33" s="0"/>
+      <c r="AJZ33" s="0"/>
+      <c r="AKA33" s="0"/>
+      <c r="AKB33" s="0"/>
+      <c r="AKC33" s="0"/>
+      <c r="AKD33" s="0"/>
+      <c r="AKE33" s="0"/>
+      <c r="AKF33" s="0"/>
+      <c r="AKG33" s="0"/>
+      <c r="AKH33" s="0"/>
+      <c r="AKI33" s="0"/>
+      <c r="AKJ33" s="0"/>
+      <c r="AKK33" s="0"/>
+      <c r="AKL33" s="0"/>
+      <c r="AKM33" s="0"/>
+      <c r="AKN33" s="0"/>
+      <c r="AKO33" s="0"/>
+      <c r="AKP33" s="0"/>
+      <c r="AKQ33" s="0"/>
+      <c r="AKR33" s="0"/>
+      <c r="AKS33" s="0"/>
+      <c r="AKT33" s="0"/>
+      <c r="AKU33" s="0"/>
+      <c r="AKV33" s="0"/>
+      <c r="AKW33" s="0"/>
+      <c r="AKX33" s="0"/>
+      <c r="AKY33" s="0"/>
+      <c r="AKZ33" s="0"/>
+      <c r="ALA33" s="0"/>
+      <c r="ALB33" s="0"/>
+      <c r="ALC33" s="0"/>
+      <c r="ALD33" s="0"/>
+      <c r="ALE33" s="0"/>
+      <c r="ALF33" s="0"/>
+      <c r="ALG33" s="0"/>
+      <c r="ALH33" s="0"/>
+      <c r="ALI33" s="0"/>
+      <c r="ALJ33" s="0"/>
+      <c r="ALK33" s="0"/>
+      <c r="ALL33" s="0"/>
+      <c r="ALM33" s="0"/>
+      <c r="ALN33" s="0"/>
+      <c r="ALO33" s="0"/>
+      <c r="ALP33" s="0"/>
+      <c r="ALQ33" s="0"/>
+      <c r="ALR33" s="0"/>
+      <c r="ALS33" s="0"/>
+      <c r="ALT33" s="0"/>
+      <c r="ALU33" s="0"/>
+      <c r="ALV33" s="0"/>
+      <c r="ALW33" s="0"/>
+      <c r="ALX33" s="0"/>
+      <c r="ALY33" s="0"/>
+      <c r="ALZ33" s="0"/>
+      <c r="AMA33" s="0"/>
+      <c r="AMB33" s="0"/>
+      <c r="AMC33" s="0"/>
+      <c r="AMD33" s="0"/>
+      <c r="AME33" s="0"/>
+      <c r="AMF33" s="0"/>
+      <c r="AMG33" s="0"/>
+      <c r="AMH33" s="0"/>
+      <c r="AMI33" s="0"/>
+      <c r="AMJ33" s="0"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0"/>
+      <c r="B34" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0"/>
+      <c r="J34" s="0"/>
+      <c r="K34" s="0"/>
+      <c r="L34" s="0"/>
+      <c r="M34" s="0"/>
+      <c r="N34" s="0"/>
+      <c r="O34" s="0"/>
+      <c r="P34" s="0"/>
+      <c r="Q34" s="0"/>
+      <c r="R34" s="0"/>
+      <c r="S34" s="0"/>
+      <c r="T34" s="0"/>
+      <c r="U34" s="0"/>
+      <c r="V34" s="0"/>
+      <c r="W34" s="0"/>
+      <c r="X34" s="0"/>
+      <c r="Y34" s="0"/>
+      <c r="Z34" s="0"/>
+      <c r="AA34" s="0"/>
+      <c r="AB34" s="0"/>
+      <c r="AC34" s="0"/>
+      <c r="AD34" s="0"/>
+      <c r="AE34" s="0"/>
+      <c r="AF34" s="0"/>
+      <c r="AG34" s="0"/>
+      <c r="AH34" s="0"/>
+      <c r="AI34" s="0"/>
+      <c r="AJ34" s="0"/>
+      <c r="AK34" s="0"/>
+      <c r="AL34" s="0"/>
+      <c r="AM34" s="0"/>
+      <c r="AN34" s="0"/>
+      <c r="AO34" s="0"/>
+      <c r="AP34" s="0"/>
+      <c r="AQ34" s="0"/>
+      <c r="AR34" s="0"/>
+      <c r="AS34" s="0"/>
+      <c r="AT34" s="0"/>
+      <c r="AU34" s="0"/>
+      <c r="AV34" s="0"/>
+      <c r="AW34" s="0"/>
+      <c r="AX34" s="0"/>
+      <c r="AY34" s="0"/>
+      <c r="AZ34" s="0"/>
+      <c r="BA34" s="0"/>
+      <c r="BB34" s="0"/>
+      <c r="BC34" s="0"/>
+      <c r="BD34" s="0"/>
+      <c r="BE34" s="0"/>
+      <c r="BF34" s="0"/>
+      <c r="BG34" s="0"/>
+      <c r="BH34" s="0"/>
+      <c r="BI34" s="0"/>
+      <c r="BJ34" s="0"/>
+      <c r="BK34" s="0"/>
+      <c r="BL34" s="0"/>
+      <c r="BM34" s="0"/>
+      <c r="BN34" s="0"/>
+      <c r="BO34" s="0"/>
+      <c r="BP34" s="0"/>
+      <c r="BQ34" s="0"/>
+      <c r="BR34" s="0"/>
+      <c r="BS34" s="0"/>
+      <c r="BT34" s="0"/>
+      <c r="BU34" s="0"/>
+      <c r="BV34" s="0"/>
+      <c r="BW34" s="0"/>
+      <c r="BX34" s="0"/>
+      <c r="BY34" s="0"/>
+      <c r="BZ34" s="0"/>
+      <c r="CA34" s="0"/>
+      <c r="CB34" s="0"/>
+      <c r="CC34" s="0"/>
+      <c r="CD34" s="0"/>
+      <c r="CE34" s="0"/>
+      <c r="CF34" s="0"/>
+      <c r="CG34" s="0"/>
+      <c r="CH34" s="0"/>
+      <c r="CI34" s="0"/>
+      <c r="CJ34" s="0"/>
+      <c r="CK34" s="0"/>
+      <c r="CL34" s="0"/>
+      <c r="CM34" s="0"/>
+      <c r="CN34" s="0"/>
+      <c r="CO34" s="0"/>
+      <c r="CP34" s="0"/>
+      <c r="CQ34" s="0"/>
+      <c r="CR34" s="0"/>
+      <c r="CS34" s="0"/>
+      <c r="CT34" s="0"/>
+      <c r="CU34" s="0"/>
+      <c r="CV34" s="0"/>
+      <c r="CW34" s="0"/>
+      <c r="CX34" s="0"/>
+      <c r="CY34" s="0"/>
+      <c r="CZ34" s="0"/>
+      <c r="DA34" s="0"/>
+      <c r="DB34" s="0"/>
+      <c r="DC34" s="0"/>
+      <c r="DD34" s="0"/>
+      <c r="DE34" s="0"/>
+      <c r="DF34" s="0"/>
+      <c r="DG34" s="0"/>
+      <c r="DH34" s="0"/>
+      <c r="DI34" s="0"/>
+      <c r="DJ34" s="0"/>
+      <c r="DK34" s="0"/>
+      <c r="DL34" s="0"/>
+      <c r="DM34" s="0"/>
+      <c r="DN34" s="0"/>
+      <c r="DO34" s="0"/>
+      <c r="DP34" s="0"/>
+      <c r="DQ34" s="0"/>
+      <c r="DR34" s="0"/>
+      <c r="DS34" s="0"/>
+      <c r="DT34" s="0"/>
+      <c r="DU34" s="0"/>
+      <c r="DV34" s="0"/>
+      <c r="DW34" s="0"/>
+      <c r="DX34" s="0"/>
+      <c r="DY34" s="0"/>
+      <c r="DZ34" s="0"/>
+      <c r="EA34" s="0"/>
+      <c r="EB34" s="0"/>
+      <c r="EC34" s="0"/>
+      <c r="ED34" s="0"/>
+      <c r="EE34" s="0"/>
+      <c r="EF34" s="0"/>
+      <c r="EG34" s="0"/>
+      <c r="EH34" s="0"/>
+      <c r="EI34" s="0"/>
+      <c r="EJ34" s="0"/>
+      <c r="EK34" s="0"/>
+      <c r="EL34" s="0"/>
+      <c r="EM34" s="0"/>
+      <c r="EN34" s="0"/>
+      <c r="EO34" s="0"/>
+      <c r="EP34" s="0"/>
+      <c r="EQ34" s="0"/>
+      <c r="ER34" s="0"/>
+      <c r="ES34" s="0"/>
+      <c r="ET34" s="0"/>
+      <c r="EU34" s="0"/>
+      <c r="EV34" s="0"/>
+      <c r="EW34" s="0"/>
+      <c r="EX34" s="0"/>
+      <c r="EY34" s="0"/>
+      <c r="EZ34" s="0"/>
+      <c r="FA34" s="0"/>
+      <c r="FB34" s="0"/>
+      <c r="FC34" s="0"/>
+      <c r="FD34" s="0"/>
+      <c r="FE34" s="0"/>
+      <c r="FF34" s="0"/>
+      <c r="FG34" s="0"/>
+      <c r="FH34" s="0"/>
+      <c r="FI34" s="0"/>
+      <c r="FJ34" s="0"/>
+      <c r="FK34" s="0"/>
+      <c r="FL34" s="0"/>
+      <c r="FM34" s="0"/>
+      <c r="FN34" s="0"/>
+      <c r="FO34" s="0"/>
+      <c r="FP34" s="0"/>
+      <c r="FQ34" s="0"/>
+      <c r="FR34" s="0"/>
+      <c r="FS34" s="0"/>
+      <c r="FT34" s="0"/>
+      <c r="FU34" s="0"/>
+      <c r="FV34" s="0"/>
+      <c r="FW34" s="0"/>
+      <c r="FX34" s="0"/>
+      <c r="FY34" s="0"/>
+      <c r="FZ34" s="0"/>
+      <c r="GA34" s="0"/>
+      <c r="GB34" s="0"/>
+      <c r="GC34" s="0"/>
+      <c r="GD34" s="0"/>
+      <c r="GE34" s="0"/>
+      <c r="GF34" s="0"/>
+      <c r="GG34" s="0"/>
+      <c r="GH34" s="0"/>
+      <c r="GI34" s="0"/>
+      <c r="GJ34" s="0"/>
+      <c r="GK34" s="0"/>
+      <c r="GL34" s="0"/>
+      <c r="GM34" s="0"/>
+      <c r="GN34" s="0"/>
+      <c r="GO34" s="0"/>
+      <c r="GP34" s="0"/>
+      <c r="GQ34" s="0"/>
+      <c r="GR34" s="0"/>
+      <c r="GS34" s="0"/>
+      <c r="GT34" s="0"/>
+      <c r="GU34" s="0"/>
+      <c r="GV34" s="0"/>
+      <c r="GW34" s="0"/>
+      <c r="GX34" s="0"/>
+      <c r="GY34" s="0"/>
+      <c r="GZ34" s="0"/>
+      <c r="HA34" s="0"/>
+      <c r="HB34" s="0"/>
+      <c r="HC34" s="0"/>
+      <c r="HD34" s="0"/>
+      <c r="HE34" s="0"/>
+      <c r="HF34" s="0"/>
+      <c r="HG34" s="0"/>
+      <c r="HH34" s="0"/>
+      <c r="HI34" s="0"/>
+      <c r="HJ34" s="0"/>
+      <c r="HK34" s="0"/>
+      <c r="HL34" s="0"/>
+      <c r="HM34" s="0"/>
+      <c r="HN34" s="0"/>
+      <c r="HO34" s="0"/>
+      <c r="HP34" s="0"/>
+      <c r="HQ34" s="0"/>
+      <c r="HR34" s="0"/>
+      <c r="HS34" s="0"/>
+      <c r="HT34" s="0"/>
+      <c r="HU34" s="0"/>
+      <c r="HV34" s="0"/>
+      <c r="HW34" s="0"/>
+      <c r="HX34" s="0"/>
+      <c r="HY34" s="0"/>
+      <c r="HZ34" s="0"/>
+      <c r="IA34" s="0"/>
+      <c r="IB34" s="0"/>
+      <c r="IC34" s="0"/>
+      <c r="ID34" s="0"/>
+      <c r="IE34" s="0"/>
+      <c r="IF34" s="0"/>
+      <c r="IG34" s="0"/>
+      <c r="IH34" s="0"/>
+      <c r="II34" s="0"/>
+      <c r="IJ34" s="0"/>
+      <c r="IK34" s="0"/>
+      <c r="IL34" s="0"/>
+      <c r="IM34" s="0"/>
+      <c r="IN34" s="0"/>
+      <c r="IO34" s="0"/>
+      <c r="IP34" s="0"/>
+      <c r="IQ34" s="0"/>
+      <c r="IR34" s="0"/>
+      <c r="IS34" s="0"/>
+      <c r="IT34" s="0"/>
+      <c r="IU34" s="0"/>
+      <c r="IV34" s="0"/>
+      <c r="IW34" s="0"/>
+      <c r="IX34" s="0"/>
+      <c r="IY34" s="0"/>
+      <c r="IZ34" s="0"/>
+      <c r="JA34" s="0"/>
+      <c r="JB34" s="0"/>
+      <c r="JC34" s="0"/>
+      <c r="JD34" s="0"/>
+      <c r="JE34" s="0"/>
+      <c r="JF34" s="0"/>
+      <c r="JG34" s="0"/>
+      <c r="JH34" s="0"/>
+      <c r="JI34" s="0"/>
+      <c r="JJ34" s="0"/>
+      <c r="JK34" s="0"/>
+      <c r="JL34" s="0"/>
+      <c r="JM34" s="0"/>
+      <c r="JN34" s="0"/>
+      <c r="JO34" s="0"/>
+      <c r="JP34" s="0"/>
+      <c r="JQ34" s="0"/>
+      <c r="JR34" s="0"/>
+      <c r="JS34" s="0"/>
+      <c r="JT34" s="0"/>
+      <c r="JU34" s="0"/>
+      <c r="JV34" s="0"/>
+      <c r="JW34" s="0"/>
+      <c r="JX34" s="0"/>
+      <c r="JY34" s="0"/>
+      <c r="JZ34" s="0"/>
+      <c r="KA34" s="0"/>
+      <c r="KB34" s="0"/>
+      <c r="KC34" s="0"/>
+      <c r="KD34" s="0"/>
+      <c r="KE34" s="0"/>
+      <c r="KF34" s="0"/>
+      <c r="KG34" s="0"/>
+      <c r="KH34" s="0"/>
+      <c r="KI34" s="0"/>
+      <c r="KJ34" s="0"/>
+      <c r="KK34" s="0"/>
+      <c r="KL34" s="0"/>
+      <c r="KM34" s="0"/>
+      <c r="KN34" s="0"/>
+      <c r="KO34" s="0"/>
+      <c r="KP34" s="0"/>
+      <c r="KQ34" s="0"/>
+      <c r="KR34" s="0"/>
+      <c r="KS34" s="0"/>
+      <c r="KT34" s="0"/>
+      <c r="KU34" s="0"/>
+      <c r="KV34" s="0"/>
+      <c r="KW34" s="0"/>
+      <c r="KX34" s="0"/>
+      <c r="KY34" s="0"/>
+      <c r="KZ34" s="0"/>
+      <c r="LA34" s="0"/>
+      <c r="LB34" s="0"/>
+      <c r="LC34" s="0"/>
+      <c r="LD34" s="0"/>
+      <c r="LE34" s="0"/>
+      <c r="LF34" s="0"/>
+      <c r="LG34" s="0"/>
+      <c r="LH34" s="0"/>
+      <c r="LI34" s="0"/>
+      <c r="LJ34" s="0"/>
+      <c r="LK34" s="0"/>
+      <c r="LL34" s="0"/>
+      <c r="LM34" s="0"/>
+      <c r="LN34" s="0"/>
+      <c r="LO34" s="0"/>
+      <c r="LP34" s="0"/>
+      <c r="LQ34" s="0"/>
+      <c r="LR34" s="0"/>
+      <c r="LS34" s="0"/>
+      <c r="LT34" s="0"/>
+      <c r="LU34" s="0"/>
+      <c r="LV34" s="0"/>
+      <c r="LW34" s="0"/>
+      <c r="LX34" s="0"/>
+      <c r="LY34" s="0"/>
+      <c r="LZ34" s="0"/>
+      <c r="MA34" s="0"/>
+      <c r="MB34" s="0"/>
+      <c r="MC34" s="0"/>
+      <c r="MD34" s="0"/>
+      <c r="ME34" s="0"/>
+      <c r="MF34" s="0"/>
+      <c r="MG34" s="0"/>
+      <c r="MH34" s="0"/>
+      <c r="MI34" s="0"/>
+      <c r="MJ34" s="0"/>
+      <c r="MK34" s="0"/>
+      <c r="ML34" s="0"/>
+      <c r="MM34" s="0"/>
+      <c r="MN34" s="0"/>
+      <c r="MO34" s="0"/>
+      <c r="MP34" s="0"/>
+      <c r="MQ34" s="0"/>
+      <c r="MR34" s="0"/>
+      <c r="MS34" s="0"/>
+      <c r="MT34" s="0"/>
+      <c r="MU34" s="0"/>
+      <c r="MV34" s="0"/>
+      <c r="MW34" s="0"/>
+      <c r="MX34" s="0"/>
+      <c r="MY34" s="0"/>
+      <c r="MZ34" s="0"/>
+      <c r="NA34" s="0"/>
+      <c r="NB34" s="0"/>
+      <c r="NC34" s="0"/>
+      <c r="ND34" s="0"/>
+      <c r="NE34" s="0"/>
+      <c r="NF34" s="0"/>
+      <c r="NG34" s="0"/>
+      <c r="NH34" s="0"/>
+      <c r="NI34" s="0"/>
+      <c r="NJ34" s="0"/>
+      <c r="NK34" s="0"/>
+      <c r="NL34" s="0"/>
+      <c r="NM34" s="0"/>
+      <c r="NN34" s="0"/>
+      <c r="NO34" s="0"/>
+      <c r="NP34" s="0"/>
+      <c r="NQ34" s="0"/>
+      <c r="NR34" s="0"/>
+      <c r="NS34" s="0"/>
+      <c r="NT34" s="0"/>
+      <c r="NU34" s="0"/>
+      <c r="NV34" s="0"/>
+      <c r="NW34" s="0"/>
+      <c r="NX34" s="0"/>
+      <c r="NY34" s="0"/>
+      <c r="NZ34" s="0"/>
+      <c r="OA34" s="0"/>
+      <c r="OB34" s="0"/>
+      <c r="OC34" s="0"/>
+      <c r="OD34" s="0"/>
+      <c r="OE34" s="0"/>
+      <c r="OF34" s="0"/>
+      <c r="OG34" s="0"/>
+      <c r="OH34" s="0"/>
+      <c r="OI34" s="0"/>
+      <c r="OJ34" s="0"/>
+      <c r="OK34" s="0"/>
+      <c r="OL34" s="0"/>
+      <c r="OM34" s="0"/>
+      <c r="ON34" s="0"/>
+      <c r="OO34" s="0"/>
+      <c r="OP34" s="0"/>
+      <c r="OQ34" s="0"/>
+      <c r="OR34" s="0"/>
+      <c r="OS34" s="0"/>
+      <c r="OT34" s="0"/>
+      <c r="OU34" s="0"/>
+      <c r="OV34" s="0"/>
+      <c r="OW34" s="0"/>
+      <c r="OX34" s="0"/>
+      <c r="OY34" s="0"/>
+      <c r="OZ34" s="0"/>
+      <c r="PA34" s="0"/>
+      <c r="PB34" s="0"/>
+      <c r="PC34" s="0"/>
+      <c r="PD34" s="0"/>
+      <c r="PE34" s="0"/>
+      <c r="PF34" s="0"/>
+      <c r="PG34" s="0"/>
+      <c r="PH34" s="0"/>
+      <c r="PI34" s="0"/>
+      <c r="PJ34" s="0"/>
+      <c r="PK34" s="0"/>
+      <c r="PL34" s="0"/>
+      <c r="PM34" s="0"/>
+      <c r="PN34" s="0"/>
+      <c r="PO34" s="0"/>
+      <c r="PP34" s="0"/>
+      <c r="PQ34" s="0"/>
+      <c r="PR34" s="0"/>
+      <c r="PS34" s="0"/>
+      <c r="PT34" s="0"/>
+      <c r="PU34" s="0"/>
+      <c r="PV34" s="0"/>
+      <c r="PW34" s="0"/>
+      <c r="PX34" s="0"/>
+      <c r="PY34" s="0"/>
+      <c r="PZ34" s="0"/>
+      <c r="QA34" s="0"/>
+      <c r="QB34" s="0"/>
+      <c r="QC34" s="0"/>
+      <c r="QD34" s="0"/>
+      <c r="QE34" s="0"/>
+      <c r="QF34" s="0"/>
+      <c r="QG34" s="0"/>
+      <c r="QH34" s="0"/>
+      <c r="QI34" s="0"/>
+      <c r="QJ34" s="0"/>
+      <c r="QK34" s="0"/>
+      <c r="QL34" s="0"/>
+      <c r="QM34" s="0"/>
+      <c r="QN34" s="0"/>
+      <c r="QO34" s="0"/>
+      <c r="QP34" s="0"/>
+      <c r="QQ34" s="0"/>
+      <c r="QR34" s="0"/>
+      <c r="QS34" s="0"/>
+      <c r="QT34" s="0"/>
+      <c r="QU34" s="0"/>
+      <c r="QV34" s="0"/>
+      <c r="QW34" s="0"/>
+      <c r="QX34" s="0"/>
+      <c r="QY34" s="0"/>
+      <c r="QZ34" s="0"/>
+      <c r="RA34" s="0"/>
+      <c r="RB34" s="0"/>
+      <c r="RC34" s="0"/>
+      <c r="RD34" s="0"/>
+      <c r="RE34" s="0"/>
+      <c r="RF34" s="0"/>
+      <c r="RG34" s="0"/>
+      <c r="RH34" s="0"/>
+      <c r="RI34" s="0"/>
+      <c r="RJ34" s="0"/>
+      <c r="RK34" s="0"/>
+      <c r="RL34" s="0"/>
+      <c r="RM34" s="0"/>
+      <c r="RN34" s="0"/>
+      <c r="RO34" s="0"/>
+      <c r="RP34" s="0"/>
+      <c r="RQ34" s="0"/>
+      <c r="RR34" s="0"/>
+      <c r="RS34" s="0"/>
+      <c r="RT34" s="0"/>
+      <c r="RU34" s="0"/>
+      <c r="RV34" s="0"/>
+      <c r="RW34" s="0"/>
+      <c r="RX34" s="0"/>
+      <c r="RY34" s="0"/>
+      <c r="RZ34" s="0"/>
+      <c r="SA34" s="0"/>
+      <c r="SB34" s="0"/>
+      <c r="SC34" s="0"/>
+      <c r="SD34" s="0"/>
+      <c r="SE34" s="0"/>
+      <c r="SF34" s="0"/>
+      <c r="SG34" s="0"/>
+      <c r="SH34" s="0"/>
+      <c r="SI34" s="0"/>
+      <c r="SJ34" s="0"/>
+      <c r="SK34" s="0"/>
+      <c r="SL34" s="0"/>
+      <c r="SM34" s="0"/>
+      <c r="SN34" s="0"/>
+      <c r="SO34" s="0"/>
+      <c r="SP34" s="0"/>
+      <c r="SQ34" s="0"/>
+      <c r="SR34" s="0"/>
+      <c r="SS34" s="0"/>
+      <c r="ST34" s="0"/>
+      <c r="SU34" s="0"/>
+      <c r="SV34" s="0"/>
+      <c r="SW34" s="0"/>
+      <c r="SX34" s="0"/>
+      <c r="SY34" s="0"/>
+      <c r="SZ34" s="0"/>
+      <c r="TA34" s="0"/>
+      <c r="TB34" s="0"/>
+      <c r="TC34" s="0"/>
+      <c r="TD34" s="0"/>
+      <c r="TE34" s="0"/>
+      <c r="TF34" s="0"/>
+      <c r="TG34" s="0"/>
+      <c r="TH34" s="0"/>
+      <c r="TI34" s="0"/>
+      <c r="TJ34" s="0"/>
+      <c r="TK34" s="0"/>
+      <c r="TL34" s="0"/>
+      <c r="TM34" s="0"/>
+      <c r="TN34" s="0"/>
+      <c r="TO34" s="0"/>
+      <c r="TP34" s="0"/>
+      <c r="TQ34" s="0"/>
+      <c r="TR34" s="0"/>
+      <c r="TS34" s="0"/>
+      <c r="TT34" s="0"/>
+      <c r="TU34" s="0"/>
+      <c r="TV34" s="0"/>
+      <c r="TW34" s="0"/>
+      <c r="TX34" s="0"/>
+      <c r="TY34" s="0"/>
+      <c r="TZ34" s="0"/>
+      <c r="UA34" s="0"/>
+      <c r="UB34" s="0"/>
+      <c r="UC34" s="0"/>
+      <c r="UD34" s="0"/>
+      <c r="UE34" s="0"/>
+      <c r="UF34" s="0"/>
+      <c r="UG34" s="0"/>
+      <c r="UH34" s="0"/>
+      <c r="UI34" s="0"/>
+      <c r="UJ34" s="0"/>
+      <c r="UK34" s="0"/>
+      <c r="UL34" s="0"/>
+      <c r="UM34" s="0"/>
+      <c r="UN34" s="0"/>
+      <c r="UO34" s="0"/>
+      <c r="UP34" s="0"/>
+      <c r="UQ34" s="0"/>
+      <c r="UR34" s="0"/>
+      <c r="US34" s="0"/>
+      <c r="UT34" s="0"/>
+      <c r="UU34" s="0"/>
+      <c r="UV34" s="0"/>
+      <c r="UW34" s="0"/>
+      <c r="UX34" s="0"/>
+      <c r="UY34" s="0"/>
+      <c r="UZ34" s="0"/>
+      <c r="VA34" s="0"/>
+      <c r="VB34" s="0"/>
+      <c r="VC34" s="0"/>
+      <c r="VD34" s="0"/>
+      <c r="VE34" s="0"/>
+      <c r="VF34" s="0"/>
+      <c r="VG34" s="0"/>
+      <c r="VH34" s="0"/>
+      <c r="VI34" s="0"/>
+      <c r="VJ34" s="0"/>
+      <c r="VK34" s="0"/>
+      <c r="VL34" s="0"/>
+      <c r="VM34" s="0"/>
+      <c r="VN34" s="0"/>
+      <c r="VO34" s="0"/>
+      <c r="VP34" s="0"/>
+      <c r="VQ34" s="0"/>
+      <c r="VR34" s="0"/>
+      <c r="VS34" s="0"/>
+      <c r="VT34" s="0"/>
+      <c r="VU34" s="0"/>
+      <c r="VV34" s="0"/>
+      <c r="VW34" s="0"/>
+      <c r="VX34" s="0"/>
+      <c r="VY34" s="0"/>
+      <c r="VZ34" s="0"/>
+      <c r="WA34" s="0"/>
+      <c r="WB34" s="0"/>
+      <c r="WC34" s="0"/>
+      <c r="WD34" s="0"/>
+      <c r="WE34" s="0"/>
+      <c r="WF34" s="0"/>
+      <c r="WG34" s="0"/>
+      <c r="WH34" s="0"/>
+      <c r="WI34" s="0"/>
+      <c r="WJ34" s="0"/>
+      <c r="WK34" s="0"/>
+      <c r="WL34" s="0"/>
+      <c r="WM34" s="0"/>
+      <c r="WN34" s="0"/>
+      <c r="WO34" s="0"/>
+      <c r="WP34" s="0"/>
+      <c r="WQ34" s="0"/>
+      <c r="WR34" s="0"/>
+      <c r="WS34" s="0"/>
+      <c r="WT34" s="0"/>
+      <c r="WU34" s="0"/>
+      <c r="WV34" s="0"/>
+      <c r="WW34" s="0"/>
+      <c r="WX34" s="0"/>
+      <c r="WY34" s="0"/>
+      <c r="WZ34" s="0"/>
+      <c r="XA34" s="0"/>
+      <c r="XB34" s="0"/>
+      <c r="XC34" s="0"/>
+      <c r="XD34" s="0"/>
+      <c r="XE34" s="0"/>
+      <c r="XF34" s="0"/>
+      <c r="XG34" s="0"/>
+      <c r="XH34" s="0"/>
+      <c r="XI34" s="0"/>
+      <c r="XJ34" s="0"/>
+      <c r="XK34" s="0"/>
+      <c r="XL34" s="0"/>
+      <c r="XM34" s="0"/>
+      <c r="XN34" s="0"/>
+      <c r="XO34" s="0"/>
+      <c r="XP34" s="0"/>
+      <c r="XQ34" s="0"/>
+      <c r="XR34" s="0"/>
+      <c r="XS34" s="0"/>
+      <c r="XT34" s="0"/>
+      <c r="XU34" s="0"/>
+      <c r="XV34" s="0"/>
+      <c r="XW34" s="0"/>
+      <c r="XX34" s="0"/>
+      <c r="XY34" s="0"/>
+      <c r="XZ34" s="0"/>
+      <c r="YA34" s="0"/>
+      <c r="YB34" s="0"/>
+      <c r="YC34" s="0"/>
+      <c r="YD34" s="0"/>
+      <c r="YE34" s="0"/>
+      <c r="YF34" s="0"/>
+      <c r="YG34" s="0"/>
+      <c r="YH34" s="0"/>
+      <c r="YI34" s="0"/>
+      <c r="YJ34" s="0"/>
+      <c r="YK34" s="0"/>
+      <c r="YL34" s="0"/>
+      <c r="YM34" s="0"/>
+      <c r="YN34" s="0"/>
+      <c r="YO34" s="0"/>
+      <c r="YP34" s="0"/>
+      <c r="YQ34" s="0"/>
+      <c r="YR34" s="0"/>
+      <c r="YS34" s="0"/>
+      <c r="YT34" s="0"/>
+      <c r="YU34" s="0"/>
+      <c r="YV34" s="0"/>
+      <c r="YW34" s="0"/>
+      <c r="YX34" s="0"/>
+      <c r="YY34" s="0"/>
+      <c r="YZ34" s="0"/>
+      <c r="ZA34" s="0"/>
+      <c r="ZB34" s="0"/>
+      <c r="ZC34" s="0"/>
+      <c r="ZD34" s="0"/>
+      <c r="ZE34" s="0"/>
+      <c r="ZF34" s="0"/>
+      <c r="ZG34" s="0"/>
+      <c r="ZH34" s="0"/>
+      <c r="ZI34" s="0"/>
+      <c r="ZJ34" s="0"/>
+      <c r="ZK34" s="0"/>
+      <c r="ZL34" s="0"/>
+      <c r="ZM34" s="0"/>
+      <c r="ZN34" s="0"/>
+      <c r="ZO34" s="0"/>
+      <c r="ZP34" s="0"/>
+      <c r="ZQ34" s="0"/>
+      <c r="ZR34" s="0"/>
+      <c r="ZS34" s="0"/>
+      <c r="ZT34" s="0"/>
+      <c r="ZU34" s="0"/>
+      <c r="ZV34" s="0"/>
+      <c r="ZW34" s="0"/>
+      <c r="ZX34" s="0"/>
+      <c r="ZY34" s="0"/>
+      <c r="ZZ34" s="0"/>
+      <c r="AAA34" s="0"/>
+      <c r="AAB34" s="0"/>
+      <c r="AAC34" s="0"/>
+      <c r="AAD34" s="0"/>
+      <c r="AAE34" s="0"/>
+      <c r="AAF34" s="0"/>
+      <c r="AAG34" s="0"/>
+      <c r="AAH34" s="0"/>
+      <c r="AAI34" s="0"/>
+      <c r="AAJ34" s="0"/>
+      <c r="AAK34" s="0"/>
+      <c r="AAL34" s="0"/>
+      <c r="AAM34" s="0"/>
+      <c r="AAN34" s="0"/>
+      <c r="AAO34" s="0"/>
+      <c r="AAP34" s="0"/>
+      <c r="AAQ34" s="0"/>
+      <c r="AAR34" s="0"/>
+      <c r="AAS34" s="0"/>
+      <c r="AAT34" s="0"/>
+      <c r="AAU34" s="0"/>
+      <c r="AAV34" s="0"/>
+      <c r="AAW34" s="0"/>
+      <c r="AAX34" s="0"/>
+      <c r="AAY34" s="0"/>
+      <c r="AAZ34" s="0"/>
+      <c r="ABA34" s="0"/>
+      <c r="ABB34" s="0"/>
+      <c r="ABC34" s="0"/>
+      <c r="ABD34" s="0"/>
+      <c r="ABE34" s="0"/>
+      <c r="ABF34" s="0"/>
+      <c r="ABG34" s="0"/>
+      <c r="ABH34" s="0"/>
+      <c r="ABI34" s="0"/>
+      <c r="ABJ34" s="0"/>
+      <c r="ABK34" s="0"/>
+      <c r="ABL34" s="0"/>
+      <c r="ABM34" s="0"/>
+      <c r="ABN34" s="0"/>
+      <c r="ABO34" s="0"/>
+      <c r="ABP34" s="0"/>
+      <c r="ABQ34" s="0"/>
+      <c r="ABR34" s="0"/>
+      <c r="ABS34" s="0"/>
+      <c r="ABT34" s="0"/>
+      <c r="ABU34" s="0"/>
+      <c r="ABV34" s="0"/>
+      <c r="ABW34" s="0"/>
+      <c r="ABX34" s="0"/>
+      <c r="ABY34" s="0"/>
+      <c r="ABZ34" s="0"/>
+      <c r="ACA34" s="0"/>
+      <c r="ACB34" s="0"/>
+      <c r="ACC34" s="0"/>
+      <c r="ACD34" s="0"/>
+      <c r="ACE34" s="0"/>
+      <c r="ACF34" s="0"/>
+      <c r="ACG34" s="0"/>
+      <c r="ACH34" s="0"/>
+      <c r="ACI34" s="0"/>
+      <c r="ACJ34" s="0"/>
+      <c r="ACK34" s="0"/>
+      <c r="ACL34" s="0"/>
+      <c r="ACM34" s="0"/>
+      <c r="ACN34" s="0"/>
+      <c r="ACO34" s="0"/>
+      <c r="ACP34" s="0"/>
+      <c r="ACQ34" s="0"/>
+      <c r="ACR34" s="0"/>
+      <c r="ACS34" s="0"/>
+      <c r="ACT34" s="0"/>
+      <c r="ACU34" s="0"/>
+      <c r="ACV34" s="0"/>
+      <c r="ACW34" s="0"/>
+      <c r="ACX34" s="0"/>
+      <c r="ACY34" s="0"/>
+      <c r="ACZ34" s="0"/>
+      <c r="ADA34" s="0"/>
+      <c r="ADB34" s="0"/>
+      <c r="ADC34" s="0"/>
+      <c r="ADD34" s="0"/>
+      <c r="ADE34" s="0"/>
+      <c r="ADF34" s="0"/>
+      <c r="ADG34" s="0"/>
+      <c r="ADH34" s="0"/>
+      <c r="ADI34" s="0"/>
+      <c r="ADJ34" s="0"/>
+      <c r="ADK34" s="0"/>
+      <c r="ADL34" s="0"/>
+      <c r="ADM34" s="0"/>
+      <c r="ADN34" s="0"/>
+      <c r="ADO34" s="0"/>
+      <c r="ADP34" s="0"/>
+      <c r="ADQ34" s="0"/>
+      <c r="ADR34" s="0"/>
+      <c r="ADS34" s="0"/>
+      <c r="ADT34" s="0"/>
+      <c r="ADU34" s="0"/>
+      <c r="ADV34" s="0"/>
+      <c r="ADW34" s="0"/>
+      <c r="ADX34" s="0"/>
+      <c r="ADY34" s="0"/>
+      <c r="ADZ34" s="0"/>
+      <c r="AEA34" s="0"/>
+      <c r="AEB34" s="0"/>
+      <c r="AEC34" s="0"/>
+      <c r="AED34" s="0"/>
+      <c r="AEE34" s="0"/>
+      <c r="AEF34" s="0"/>
+      <c r="AEG34" s="0"/>
+      <c r="AEH34" s="0"/>
+      <c r="AEI34" s="0"/>
+      <c r="AEJ34" s="0"/>
+      <c r="AEK34" s="0"/>
+      <c r="AEL34" s="0"/>
+      <c r="AEM34" s="0"/>
+      <c r="AEN34" s="0"/>
+      <c r="AEO34" s="0"/>
+      <c r="AEP34" s="0"/>
+      <c r="AEQ34" s="0"/>
+      <c r="AER34" s="0"/>
+      <c r="AES34" s="0"/>
+      <c r="AET34" s="0"/>
+      <c r="AEU34" s="0"/>
+      <c r="AEV34" s="0"/>
+      <c r="AEW34" s="0"/>
+      <c r="AEX34" s="0"/>
+      <c r="AEY34" s="0"/>
+      <c r="AEZ34" s="0"/>
+      <c r="AFA34" s="0"/>
+      <c r="AFB34" s="0"/>
+      <c r="AFC34" s="0"/>
+      <c r="AFD34" s="0"/>
+      <c r="AFE34" s="0"/>
+      <c r="AFF34" s="0"/>
+      <c r="AFG34" s="0"/>
+      <c r="AFH34" s="0"/>
+      <c r="AFI34" s="0"/>
+      <c r="AFJ34" s="0"/>
+      <c r="AFK34" s="0"/>
+      <c r="AFL34" s="0"/>
+      <c r="AFM34" s="0"/>
+      <c r="AFN34" s="0"/>
+      <c r="AFO34" s="0"/>
+      <c r="AFP34" s="0"/>
+      <c r="AFQ34" s="0"/>
+      <c r="AFR34" s="0"/>
+      <c r="AFS34" s="0"/>
+      <c r="AFT34" s="0"/>
+      <c r="AFU34" s="0"/>
+      <c r="AFV34" s="0"/>
+      <c r="AFW34" s="0"/>
+      <c r="AFX34" s="0"/>
+      <c r="AFY34" s="0"/>
+      <c r="AFZ34" s="0"/>
+      <c r="AGA34" s="0"/>
+      <c r="AGB34" s="0"/>
+      <c r="AGC34" s="0"/>
+      <c r="AGD34" s="0"/>
+      <c r="AGE34" s="0"/>
+      <c r="AGF34" s="0"/>
+      <c r="AGG34" s="0"/>
+      <c r="AGH34" s="0"/>
+      <c r="AGI34" s="0"/>
+      <c r="AGJ34" s="0"/>
+      <c r="AGK34" s="0"/>
+      <c r="AGL34" s="0"/>
+      <c r="AGM34" s="0"/>
+      <c r="AGN34" s="0"/>
+      <c r="AGO34" s="0"/>
+      <c r="AGP34" s="0"/>
+      <c r="AGQ34" s="0"/>
+      <c r="AGR34" s="0"/>
+      <c r="AGS34" s="0"/>
+      <c r="AGT34" s="0"/>
+      <c r="AGU34" s="0"/>
+      <c r="AGV34" s="0"/>
+      <c r="AGW34" s="0"/>
+      <c r="AGX34" s="0"/>
+      <c r="AGY34" s="0"/>
+      <c r="AGZ34" s="0"/>
+      <c r="AHA34" s="0"/>
+      <c r="AHB34" s="0"/>
+      <c r="AHC34" s="0"/>
+      <c r="AHD34" s="0"/>
+      <c r="AHE34" s="0"/>
+      <c r="AHF34" s="0"/>
+      <c r="AHG34" s="0"/>
+      <c r="AHH34" s="0"/>
+      <c r="AHI34" s="0"/>
+      <c r="AHJ34" s="0"/>
+      <c r="AHK34" s="0"/>
+      <c r="AHL34" s="0"/>
+      <c r="AHM34" s="0"/>
+      <c r="AHN34" s="0"/>
+      <c r="AHO34" s="0"/>
+      <c r="AHP34" s="0"/>
+      <c r="AHQ34" s="0"/>
+      <c r="AHR34" s="0"/>
+      <c r="AHS34" s="0"/>
+      <c r="AHT34" s="0"/>
+      <c r="AHU34" s="0"/>
+      <c r="AHV34" s="0"/>
+      <c r="AHW34" s="0"/>
+      <c r="AHX34" s="0"/>
+      <c r="AHY34" s="0"/>
+      <c r="AHZ34" s="0"/>
+      <c r="AIA34" s="0"/>
+      <c r="AIB34" s="0"/>
+      <c r="AIC34" s="0"/>
+      <c r="AID34" s="0"/>
+      <c r="AIE34" s="0"/>
+      <c r="AIF34" s="0"/>
+      <c r="AIG34" s="0"/>
+      <c r="AIH34" s="0"/>
+      <c r="AII34" s="0"/>
+      <c r="AIJ34" s="0"/>
+      <c r="AIK34" s="0"/>
+      <c r="AIL34" s="0"/>
+      <c r="AIM34" s="0"/>
+      <c r="AIN34" s="0"/>
+      <c r="AIO34" s="0"/>
+      <c r="AIP34" s="0"/>
+      <c r="AIQ34" s="0"/>
+      <c r="AIR34" s="0"/>
+      <c r="AIS34" s="0"/>
+      <c r="AIT34" s="0"/>
+      <c r="AIU34" s="0"/>
+      <c r="AIV34" s="0"/>
+      <c r="AIW34" s="0"/>
+      <c r="AIX34" s="0"/>
+      <c r="AIY34" s="0"/>
+      <c r="AIZ34" s="0"/>
+      <c r="AJA34" s="0"/>
+      <c r="AJB34" s="0"/>
+      <c r="AJC34" s="0"/>
+      <c r="AJD34" s="0"/>
+      <c r="AJE34" s="0"/>
+      <c r="AJF34" s="0"/>
+      <c r="AJG34" s="0"/>
+      <c r="AJH34" s="0"/>
+      <c r="AJI34" s="0"/>
+      <c r="AJJ34" s="0"/>
+      <c r="AJK34" s="0"/>
+      <c r="AJL34" s="0"/>
+      <c r="AJM34" s="0"/>
+      <c r="AJN34" s="0"/>
+      <c r="AJO34" s="0"/>
+      <c r="AJP34" s="0"/>
+      <c r="AJQ34" s="0"/>
+      <c r="AJR34" s="0"/>
+      <c r="AJS34" s="0"/>
+      <c r="AJT34" s="0"/>
+      <c r="AJU34" s="0"/>
+      <c r="AJV34" s="0"/>
+      <c r="AJW34" s="0"/>
+      <c r="AJX34" s="0"/>
+      <c r="AJY34" s="0"/>
+      <c r="AJZ34" s="0"/>
+      <c r="AKA34" s="0"/>
+      <c r="AKB34" s="0"/>
+      <c r="AKC34" s="0"/>
+      <c r="AKD34" s="0"/>
+      <c r="AKE34" s="0"/>
+      <c r="AKF34" s="0"/>
+      <c r="AKG34" s="0"/>
+      <c r="AKH34" s="0"/>
+      <c r="AKI34" s="0"/>
+      <c r="AKJ34" s="0"/>
+      <c r="AKK34" s="0"/>
+      <c r="AKL34" s="0"/>
+      <c r="AKM34" s="0"/>
+      <c r="AKN34" s="0"/>
+      <c r="AKO34" s="0"/>
+      <c r="AKP34" s="0"/>
+      <c r="AKQ34" s="0"/>
+      <c r="AKR34" s="0"/>
+      <c r="AKS34" s="0"/>
+      <c r="AKT34" s="0"/>
+      <c r="AKU34" s="0"/>
+      <c r="AKV34" s="0"/>
+      <c r="AKW34" s="0"/>
+      <c r="AKX34" s="0"/>
+      <c r="AKY34" s="0"/>
+      <c r="AKZ34" s="0"/>
+      <c r="ALA34" s="0"/>
+      <c r="ALB34" s="0"/>
+      <c r="ALC34" s="0"/>
+      <c r="ALD34" s="0"/>
+      <c r="ALE34" s="0"/>
+      <c r="ALF34" s="0"/>
+      <c r="ALG34" s="0"/>
+      <c r="ALH34" s="0"/>
+      <c r="ALI34" s="0"/>
+      <c r="ALJ34" s="0"/>
+      <c r="ALK34" s="0"/>
+      <c r="ALL34" s="0"/>
+      <c r="ALM34" s="0"/>
+      <c r="ALN34" s="0"/>
+      <c r="ALO34" s="0"/>
+      <c r="ALP34" s="0"/>
+      <c r="ALQ34" s="0"/>
+      <c r="ALR34" s="0"/>
+      <c r="ALS34" s="0"/>
+      <c r="ALT34" s="0"/>
+      <c r="ALU34" s="0"/>
+      <c r="ALV34" s="0"/>
+      <c r="ALW34" s="0"/>
+      <c r="ALX34" s="0"/>
+      <c r="ALY34" s="0"/>
+      <c r="ALZ34" s="0"/>
+      <c r="AMA34" s="0"/>
+      <c r="AMB34" s="0"/>
+      <c r="AMC34" s="0"/>
+      <c r="AMD34" s="0"/>
+      <c r="AME34" s="0"/>
+      <c r="AMF34" s="0"/>
+      <c r="AMG34" s="0"/>
+      <c r="AMH34" s="0"/>
+      <c r="AMI34" s="0"/>
+      <c r="AMJ34" s="0"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+    <row r="35" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0"/>
+      <c r="B35" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+      <c r="M35" s="0"/>
+      <c r="N35" s="0"/>
+      <c r="O35" s="0"/>
+      <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
+      <c r="S35" s="0"/>
+      <c r="T35" s="0"/>
+      <c r="U35" s="0"/>
+      <c r="V35" s="0"/>
+      <c r="W35" s="0"/>
+      <c r="X35" s="0"/>
+      <c r="Y35" s="0"/>
+      <c r="Z35" s="0"/>
+      <c r="AA35" s="0"/>
+      <c r="AB35" s="0"/>
+      <c r="AC35" s="0"/>
+      <c r="AD35" s="0"/>
+      <c r="AE35" s="0"/>
+      <c r="AF35" s="0"/>
+      <c r="AG35" s="0"/>
+      <c r="AH35" s="0"/>
+      <c r="AI35" s="0"/>
+      <c r="AJ35" s="0"/>
+      <c r="AK35" s="0"/>
+      <c r="AL35" s="0"/>
+      <c r="AM35" s="0"/>
+      <c r="AN35" s="0"/>
+      <c r="AO35" s="0"/>
+      <c r="AP35" s="0"/>
+      <c r="AQ35" s="0"/>
+      <c r="AR35" s="0"/>
+      <c r="AS35" s="0"/>
+      <c r="AT35" s="0"/>
+      <c r="AU35" s="0"/>
+      <c r="AV35" s="0"/>
+      <c r="AW35" s="0"/>
+      <c r="AX35" s="0"/>
+      <c r="AY35" s="0"/>
+      <c r="AZ35" s="0"/>
+      <c r="BA35" s="0"/>
+      <c r="BB35" s="0"/>
+      <c r="BC35" s="0"/>
+      <c r="BD35" s="0"/>
+      <c r="BE35" s="0"/>
+      <c r="BF35" s="0"/>
+      <c r="BG35" s="0"/>
+      <c r="BH35" s="0"/>
+      <c r="BI35" s="0"/>
+      <c r="BJ35" s="0"/>
+      <c r="BK35" s="0"/>
+      <c r="BL35" s="0"/>
+      <c r="BM35" s="0"/>
+      <c r="BN35" s="0"/>
+      <c r="BO35" s="0"/>
+      <c r="BP35" s="0"/>
+      <c r="BQ35" s="0"/>
+      <c r="BR35" s="0"/>
+      <c r="BS35" s="0"/>
+      <c r="BT35" s="0"/>
+      <c r="BU35" s="0"/>
+      <c r="BV35" s="0"/>
+      <c r="BW35" s="0"/>
+      <c r="BX35" s="0"/>
+      <c r="BY35" s="0"/>
+      <c r="BZ35" s="0"/>
+      <c r="CA35" s="0"/>
+      <c r="CB35" s="0"/>
+      <c r="CC35" s="0"/>
+      <c r="CD35" s="0"/>
+      <c r="CE35" s="0"/>
+      <c r="CF35" s="0"/>
+      <c r="CG35" s="0"/>
+      <c r="CH35" s="0"/>
+      <c r="CI35" s="0"/>
+      <c r="CJ35" s="0"/>
+      <c r="CK35" s="0"/>
+      <c r="CL35" s="0"/>
+      <c r="CM35" s="0"/>
+      <c r="CN35" s="0"/>
+      <c r="CO35" s="0"/>
+      <c r="CP35" s="0"/>
+      <c r="CQ35" s="0"/>
+      <c r="CR35" s="0"/>
+      <c r="CS35" s="0"/>
+      <c r="CT35" s="0"/>
+      <c r="CU35" s="0"/>
+      <c r="CV35" s="0"/>
+      <c r="CW35" s="0"/>
+      <c r="CX35" s="0"/>
+      <c r="CY35" s="0"/>
+      <c r="CZ35" s="0"/>
+      <c r="DA35" s="0"/>
+      <c r="DB35" s="0"/>
+      <c r="DC35" s="0"/>
+      <c r="DD35" s="0"/>
+      <c r="DE35" s="0"/>
+      <c r="DF35" s="0"/>
+      <c r="DG35" s="0"/>
+      <c r="DH35" s="0"/>
+      <c r="DI35" s="0"/>
+      <c r="DJ35" s="0"/>
+      <c r="DK35" s="0"/>
+      <c r="DL35" s="0"/>
+      <c r="DM35" s="0"/>
+      <c r="DN35" s="0"/>
+      <c r="DO35" s="0"/>
+      <c r="DP35" s="0"/>
+      <c r="DQ35" s="0"/>
+      <c r="DR35" s="0"/>
+      <c r="DS35" s="0"/>
+      <c r="DT35" s="0"/>
+      <c r="DU35" s="0"/>
+      <c r="DV35" s="0"/>
+      <c r="DW35" s="0"/>
+      <c r="DX35" s="0"/>
+      <c r="DY35" s="0"/>
+      <c r="DZ35" s="0"/>
+      <c r="EA35" s="0"/>
+      <c r="EB35" s="0"/>
+      <c r="EC35" s="0"/>
+      <c r="ED35" s="0"/>
+      <c r="EE35" s="0"/>
+      <c r="EF35" s="0"/>
+      <c r="EG35" s="0"/>
+      <c r="EH35" s="0"/>
+      <c r="EI35" s="0"/>
+      <c r="EJ35" s="0"/>
+      <c r="EK35" s="0"/>
+      <c r="EL35" s="0"/>
+      <c r="EM35" s="0"/>
+      <c r="EN35" s="0"/>
+      <c r="EO35" s="0"/>
+      <c r="EP35" s="0"/>
+      <c r="EQ35" s="0"/>
+      <c r="ER35" s="0"/>
+      <c r="ES35" s="0"/>
+      <c r="ET35" s="0"/>
+      <c r="EU35" s="0"/>
+      <c r="EV35" s="0"/>
+      <c r="EW35" s="0"/>
+      <c r="EX35" s="0"/>
+      <c r="EY35" s="0"/>
+      <c r="EZ35" s="0"/>
+      <c r="FA35" s="0"/>
+      <c r="FB35" s="0"/>
+      <c r="FC35" s="0"/>
+      <c r="FD35" s="0"/>
+      <c r="FE35" s="0"/>
+      <c r="FF35" s="0"/>
+      <c r="FG35" s="0"/>
+      <c r="FH35" s="0"/>
+      <c r="FI35" s="0"/>
+      <c r="FJ35" s="0"/>
+      <c r="FK35" s="0"/>
+      <c r="FL35" s="0"/>
+      <c r="FM35" s="0"/>
+      <c r="FN35" s="0"/>
+      <c r="FO35" s="0"/>
+      <c r="FP35" s="0"/>
+      <c r="FQ35" s="0"/>
+      <c r="FR35" s="0"/>
+      <c r="FS35" s="0"/>
+      <c r="FT35" s="0"/>
+      <c r="FU35" s="0"/>
+      <c r="FV35" s="0"/>
+      <c r="FW35" s="0"/>
+      <c r="FX35" s="0"/>
+      <c r="FY35" s="0"/>
+      <c r="FZ35" s="0"/>
+      <c r="GA35" s="0"/>
+      <c r="GB35" s="0"/>
+      <c r="GC35" s="0"/>
+      <c r="GD35" s="0"/>
+      <c r="GE35" s="0"/>
+      <c r="GF35" s="0"/>
+      <c r="GG35" s="0"/>
+      <c r="GH35" s="0"/>
+      <c r="GI35" s="0"/>
+      <c r="GJ35" s="0"/>
+      <c r="GK35" s="0"/>
+      <c r="GL35" s="0"/>
+      <c r="GM35" s="0"/>
+      <c r="GN35" s="0"/>
+      <c r="GO35" s="0"/>
+      <c r="GP35" s="0"/>
+      <c r="GQ35" s="0"/>
+      <c r="GR35" s="0"/>
+      <c r="GS35" s="0"/>
+      <c r="GT35" s="0"/>
+      <c r="GU35" s="0"/>
+      <c r="GV35" s="0"/>
+      <c r="GW35" s="0"/>
+      <c r="GX35" s="0"/>
+      <c r="GY35" s="0"/>
+      <c r="GZ35" s="0"/>
+      <c r="HA35" s="0"/>
+      <c r="HB35" s="0"/>
+      <c r="HC35" s="0"/>
+      <c r="HD35" s="0"/>
+      <c r="HE35" s="0"/>
+      <c r="HF35" s="0"/>
+      <c r="HG35" s="0"/>
+      <c r="HH35" s="0"/>
+      <c r="HI35" s="0"/>
+      <c r="HJ35" s="0"/>
+      <c r="HK35" s="0"/>
+      <c r="HL35" s="0"/>
+      <c r="HM35" s="0"/>
+      <c r="HN35" s="0"/>
+      <c r="HO35" s="0"/>
+      <c r="HP35" s="0"/>
+      <c r="HQ35" s="0"/>
+      <c r="HR35" s="0"/>
+      <c r="HS35" s="0"/>
+      <c r="HT35" s="0"/>
+      <c r="HU35" s="0"/>
+      <c r="HV35" s="0"/>
+      <c r="HW35" s="0"/>
+      <c r="HX35" s="0"/>
+      <c r="HY35" s="0"/>
+      <c r="HZ35" s="0"/>
+      <c r="IA35" s="0"/>
+      <c r="IB35" s="0"/>
+      <c r="IC35" s="0"/>
+      <c r="ID35" s="0"/>
+      <c r="IE35" s="0"/>
+      <c r="IF35" s="0"/>
+      <c r="IG35" s="0"/>
+      <c r="IH35" s="0"/>
+      <c r="II35" s="0"/>
+      <c r="IJ35" s="0"/>
+      <c r="IK35" s="0"/>
+      <c r="IL35" s="0"/>
+      <c r="IM35" s="0"/>
+      <c r="IN35" s="0"/>
+      <c r="IO35" s="0"/>
+      <c r="IP35" s="0"/>
+      <c r="IQ35" s="0"/>
+      <c r="IR35" s="0"/>
+      <c r="IS35" s="0"/>
+      <c r="IT35" s="0"/>
+      <c r="IU35" s="0"/>
+      <c r="IV35" s="0"/>
+      <c r="IW35" s="0"/>
+      <c r="IX35" s="0"/>
+      <c r="IY35" s="0"/>
+      <c r="IZ35" s="0"/>
+      <c r="JA35" s="0"/>
+      <c r="JB35" s="0"/>
+      <c r="JC35" s="0"/>
+      <c r="JD35" s="0"/>
+      <c r="JE35" s="0"/>
+      <c r="JF35" s="0"/>
+      <c r="JG35" s="0"/>
+      <c r="JH35" s="0"/>
+      <c r="JI35" s="0"/>
+      <c r="JJ35" s="0"/>
+      <c r="JK35" s="0"/>
+      <c r="JL35" s="0"/>
+      <c r="JM35" s="0"/>
+      <c r="JN35" s="0"/>
+      <c r="JO35" s="0"/>
+      <c r="JP35" s="0"/>
+      <c r="JQ35" s="0"/>
+      <c r="JR35" s="0"/>
+      <c r="JS35" s="0"/>
+      <c r="JT35" s="0"/>
+      <c r="JU35" s="0"/>
+      <c r="JV35" s="0"/>
+      <c r="JW35" s="0"/>
+      <c r="JX35" s="0"/>
+      <c r="JY35" s="0"/>
+      <c r="JZ35" s="0"/>
+      <c r="KA35" s="0"/>
+      <c r="KB35" s="0"/>
+      <c r="KC35" s="0"/>
+      <c r="KD35" s="0"/>
+      <c r="KE35" s="0"/>
+      <c r="KF35" s="0"/>
+      <c r="KG35" s="0"/>
+      <c r="KH35" s="0"/>
+      <c r="KI35" s="0"/>
+      <c r="KJ35" s="0"/>
+      <c r="KK35" s="0"/>
+      <c r="KL35" s="0"/>
+      <c r="KM35" s="0"/>
+      <c r="KN35" s="0"/>
+      <c r="KO35" s="0"/>
+      <c r="KP35" s="0"/>
+      <c r="KQ35" s="0"/>
+      <c r="KR35" s="0"/>
+      <c r="KS35" s="0"/>
+      <c r="KT35" s="0"/>
+      <c r="KU35" s="0"/>
+      <c r="KV35" s="0"/>
+      <c r="KW35" s="0"/>
+      <c r="KX35" s="0"/>
+      <c r="KY35" s="0"/>
+      <c r="KZ35" s="0"/>
+      <c r="LA35" s="0"/>
+      <c r="LB35" s="0"/>
+      <c r="LC35" s="0"/>
+      <c r="LD35" s="0"/>
+      <c r="LE35" s="0"/>
+      <c r="LF35" s="0"/>
+      <c r="LG35" s="0"/>
+      <c r="LH35" s="0"/>
+      <c r="LI35" s="0"/>
+      <c r="LJ35" s="0"/>
+      <c r="LK35" s="0"/>
+      <c r="LL35" s="0"/>
+      <c r="LM35" s="0"/>
+      <c r="LN35" s="0"/>
+      <c r="LO35" s="0"/>
+      <c r="LP35" s="0"/>
+      <c r="LQ35" s="0"/>
+      <c r="LR35" s="0"/>
+      <c r="LS35" s="0"/>
+      <c r="LT35" s="0"/>
+      <c r="LU35" s="0"/>
+      <c r="LV35" s="0"/>
+      <c r="LW35" s="0"/>
+      <c r="LX35" s="0"/>
+      <c r="LY35" s="0"/>
+      <c r="LZ35" s="0"/>
+      <c r="MA35" s="0"/>
+      <c r="MB35" s="0"/>
+      <c r="MC35" s="0"/>
+      <c r="MD35" s="0"/>
+      <c r="ME35" s="0"/>
+      <c r="MF35" s="0"/>
+      <c r="MG35" s="0"/>
+      <c r="MH35" s="0"/>
+      <c r="MI35" s="0"/>
+      <c r="MJ35" s="0"/>
+      <c r="MK35" s="0"/>
+      <c r="ML35" s="0"/>
+      <c r="MM35" s="0"/>
+      <c r="MN35" s="0"/>
+      <c r="MO35" s="0"/>
+      <c r="MP35" s="0"/>
+      <c r="MQ35" s="0"/>
+      <c r="MR35" s="0"/>
+      <c r="MS35" s="0"/>
+      <c r="MT35" s="0"/>
+      <c r="MU35" s="0"/>
+      <c r="MV35" s="0"/>
+      <c r="MW35" s="0"/>
+      <c r="MX35" s="0"/>
+      <c r="MY35" s="0"/>
+      <c r="MZ35" s="0"/>
+      <c r="NA35" s="0"/>
+      <c r="NB35" s="0"/>
+      <c r="NC35" s="0"/>
+      <c r="ND35" s="0"/>
+      <c r="NE35" s="0"/>
+      <c r="NF35" s="0"/>
+      <c r="NG35" s="0"/>
+      <c r="NH35" s="0"/>
+      <c r="NI35" s="0"/>
+      <c r="NJ35" s="0"/>
+      <c r="NK35" s="0"/>
+      <c r="NL35" s="0"/>
+      <c r="NM35" s="0"/>
+      <c r="NN35" s="0"/>
+      <c r="NO35" s="0"/>
+      <c r="NP35" s="0"/>
+      <c r="NQ35" s="0"/>
+      <c r="NR35" s="0"/>
+      <c r="NS35" s="0"/>
+      <c r="NT35" s="0"/>
+      <c r="NU35" s="0"/>
+      <c r="NV35" s="0"/>
+      <c r="NW35" s="0"/>
+      <c r="NX35" s="0"/>
+      <c r="NY35" s="0"/>
+      <c r="NZ35" s="0"/>
+      <c r="OA35" s="0"/>
+      <c r="OB35" s="0"/>
+      <c r="OC35" s="0"/>
+      <c r="OD35" s="0"/>
+      <c r="OE35" s="0"/>
+      <c r="OF35" s="0"/>
+      <c r="OG35" s="0"/>
+      <c r="OH35" s="0"/>
+      <c r="OI35" s="0"/>
+      <c r="OJ35" s="0"/>
+      <c r="OK35" s="0"/>
+      <c r="OL35" s="0"/>
+      <c r="OM35" s="0"/>
+      <c r="ON35" s="0"/>
+      <c r="OO35" s="0"/>
+      <c r="OP35" s="0"/>
+      <c r="OQ35" s="0"/>
+      <c r="OR35" s="0"/>
+      <c r="OS35" s="0"/>
+      <c r="OT35" s="0"/>
+      <c r="OU35" s="0"/>
+      <c r="OV35" s="0"/>
+      <c r="OW35" s="0"/>
+      <c r="OX35" s="0"/>
+      <c r="OY35" s="0"/>
+      <c r="OZ35" s="0"/>
+      <c r="PA35" s="0"/>
+      <c r="PB35" s="0"/>
+      <c r="PC35" s="0"/>
+      <c r="PD35" s="0"/>
+      <c r="PE35" s="0"/>
+      <c r="PF35" s="0"/>
+      <c r="PG35" s="0"/>
+      <c r="PH35" s="0"/>
+      <c r="PI35" s="0"/>
+      <c r="PJ35" s="0"/>
+      <c r="PK35" s="0"/>
+      <c r="PL35" s="0"/>
+      <c r="PM35" s="0"/>
+      <c r="PN35" s="0"/>
+      <c r="PO35" s="0"/>
+      <c r="PP35" s="0"/>
+      <c r="PQ35" s="0"/>
+      <c r="PR35" s="0"/>
+      <c r="PS35" s="0"/>
+      <c r="PT35" s="0"/>
+      <c r="PU35" s="0"/>
+      <c r="PV35" s="0"/>
+      <c r="PW35" s="0"/>
+      <c r="PX35" s="0"/>
+      <c r="PY35" s="0"/>
+      <c r="PZ35" s="0"/>
+      <c r="QA35" s="0"/>
+      <c r="QB35" s="0"/>
+      <c r="QC35" s="0"/>
+      <c r="QD35" s="0"/>
+      <c r="QE35" s="0"/>
+      <c r="QF35" s="0"/>
+      <c r="QG35" s="0"/>
+      <c r="QH35" s="0"/>
+      <c r="QI35" s="0"/>
+      <c r="QJ35" s="0"/>
+      <c r="QK35" s="0"/>
+      <c r="QL35" s="0"/>
+      <c r="QM35" s="0"/>
+      <c r="QN35" s="0"/>
+      <c r="QO35" s="0"/>
+      <c r="QP35" s="0"/>
+      <c r="QQ35" s="0"/>
+      <c r="QR35" s="0"/>
+      <c r="QS35" s="0"/>
+      <c r="QT35" s="0"/>
+      <c r="QU35" s="0"/>
+      <c r="QV35" s="0"/>
+      <c r="QW35" s="0"/>
+      <c r="QX35" s="0"/>
+      <c r="QY35" s="0"/>
+      <c r="QZ35" s="0"/>
+      <c r="RA35" s="0"/>
+      <c r="RB35" s="0"/>
+      <c r="RC35" s="0"/>
+      <c r="RD35" s="0"/>
+      <c r="RE35" s="0"/>
+      <c r="RF35" s="0"/>
+      <c r="RG35" s="0"/>
+      <c r="RH35" s="0"/>
+      <c r="RI35" s="0"/>
+      <c r="RJ35" s="0"/>
+      <c r="RK35" s="0"/>
+      <c r="RL35" s="0"/>
+      <c r="RM35" s="0"/>
+      <c r="RN35" s="0"/>
+      <c r="RO35" s="0"/>
+      <c r="RP35" s="0"/>
+      <c r="RQ35" s="0"/>
+      <c r="RR35" s="0"/>
+      <c r="RS35" s="0"/>
+      <c r="RT35" s="0"/>
+      <c r="RU35" s="0"/>
+      <c r="RV35" s="0"/>
+      <c r="RW35" s="0"/>
+      <c r="RX35" s="0"/>
+      <c r="RY35" s="0"/>
+      <c r="RZ35" s="0"/>
+      <c r="SA35" s="0"/>
+      <c r="SB35" s="0"/>
+      <c r="SC35" s="0"/>
+      <c r="SD35" s="0"/>
+      <c r="SE35" s="0"/>
+      <c r="SF35" s="0"/>
+      <c r="SG35" s="0"/>
+      <c r="SH35" s="0"/>
+      <c r="SI35" s="0"/>
+      <c r="SJ35" s="0"/>
+      <c r="SK35" s="0"/>
+      <c r="SL35" s="0"/>
+      <c r="SM35" s="0"/>
+      <c r="SN35" s="0"/>
+      <c r="SO35" s="0"/>
+      <c r="SP35" s="0"/>
+      <c r="SQ35" s="0"/>
+      <c r="SR35" s="0"/>
+      <c r="SS35" s="0"/>
+      <c r="ST35" s="0"/>
+      <c r="SU35" s="0"/>
+      <c r="SV35" s="0"/>
+      <c r="SW35" s="0"/>
+      <c r="SX35" s="0"/>
+      <c r="SY35" s="0"/>
+      <c r="SZ35" s="0"/>
+      <c r="TA35" s="0"/>
+      <c r="TB35" s="0"/>
+      <c r="TC35" s="0"/>
+      <c r="TD35" s="0"/>
+      <c r="TE35" s="0"/>
+      <c r="TF35" s="0"/>
+      <c r="TG35" s="0"/>
+      <c r="TH35" s="0"/>
+      <c r="TI35" s="0"/>
+      <c r="TJ35" s="0"/>
+      <c r="TK35" s="0"/>
+      <c r="TL35" s="0"/>
+      <c r="TM35" s="0"/>
+      <c r="TN35" s="0"/>
+      <c r="TO35" s="0"/>
+      <c r="TP35" s="0"/>
+      <c r="TQ35" s="0"/>
+      <c r="TR35" s="0"/>
+      <c r="TS35" s="0"/>
+      <c r="TT35" s="0"/>
+      <c r="TU35" s="0"/>
+      <c r="TV35" s="0"/>
+      <c r="TW35" s="0"/>
+      <c r="TX35" s="0"/>
+      <c r="TY35" s="0"/>
+      <c r="TZ35" s="0"/>
+      <c r="UA35" s="0"/>
+      <c r="UB35" s="0"/>
+      <c r="UC35" s="0"/>
+      <c r="UD35" s="0"/>
+      <c r="UE35" s="0"/>
+      <c r="UF35" s="0"/>
+      <c r="UG35" s="0"/>
+      <c r="UH35" s="0"/>
+      <c r="UI35" s="0"/>
+      <c r="UJ35" s="0"/>
+      <c r="UK35" s="0"/>
+      <c r="UL35" s="0"/>
+      <c r="UM35" s="0"/>
+      <c r="UN35" s="0"/>
+      <c r="UO35" s="0"/>
+      <c r="UP35" s="0"/>
+      <c r="UQ35" s="0"/>
+      <c r="UR35" s="0"/>
+      <c r="US35" s="0"/>
+      <c r="UT35" s="0"/>
+      <c r="UU35" s="0"/>
+      <c r="UV35" s="0"/>
+      <c r="UW35" s="0"/>
+      <c r="UX35" s="0"/>
+      <c r="UY35" s="0"/>
+      <c r="UZ35" s="0"/>
+      <c r="VA35" s="0"/>
+      <c r="VB35" s="0"/>
+      <c r="VC35" s="0"/>
+      <c r="VD35" s="0"/>
+      <c r="VE35" s="0"/>
+      <c r="VF35" s="0"/>
+      <c r="VG35" s="0"/>
+      <c r="VH35" s="0"/>
+      <c r="VI35" s="0"/>
+      <c r="VJ35" s="0"/>
+      <c r="VK35" s="0"/>
+      <c r="VL35" s="0"/>
+      <c r="VM35" s="0"/>
+      <c r="VN35" s="0"/>
+      <c r="VO35" s="0"/>
+      <c r="VP35" s="0"/>
+      <c r="VQ35" s="0"/>
+      <c r="VR35" s="0"/>
+      <c r="VS35" s="0"/>
+      <c r="VT35" s="0"/>
+      <c r="VU35" s="0"/>
+      <c r="VV35" s="0"/>
+      <c r="VW35" s="0"/>
+      <c r="VX35" s="0"/>
+      <c r="VY35" s="0"/>
+      <c r="VZ35" s="0"/>
+      <c r="WA35" s="0"/>
+      <c r="WB35" s="0"/>
+      <c r="WC35" s="0"/>
+      <c r="WD35" s="0"/>
+      <c r="WE35" s="0"/>
+      <c r="WF35" s="0"/>
+      <c r="WG35" s="0"/>
+      <c r="WH35" s="0"/>
+      <c r="WI35" s="0"/>
+      <c r="WJ35" s="0"/>
+      <c r="WK35" s="0"/>
+      <c r="WL35" s="0"/>
+      <c r="WM35" s="0"/>
+      <c r="WN35" s="0"/>
+      <c r="WO35" s="0"/>
+      <c r="WP35" s="0"/>
+      <c r="WQ35" s="0"/>
+      <c r="WR35" s="0"/>
+      <c r="WS35" s="0"/>
+      <c r="WT35" s="0"/>
+      <c r="WU35" s="0"/>
+      <c r="WV35" s="0"/>
+      <c r="WW35" s="0"/>
+      <c r="WX35" s="0"/>
+      <c r="WY35" s="0"/>
+      <c r="WZ35" s="0"/>
+      <c r="XA35" s="0"/>
+      <c r="XB35" s="0"/>
+      <c r="XC35" s="0"/>
+      <c r="XD35" s="0"/>
+      <c r="XE35" s="0"/>
+      <c r="XF35" s="0"/>
+      <c r="XG35" s="0"/>
+      <c r="XH35" s="0"/>
+      <c r="XI35" s="0"/>
+      <c r="XJ35" s="0"/>
+      <c r="XK35" s="0"/>
+      <c r="XL35" s="0"/>
+      <c r="XM35" s="0"/>
+      <c r="XN35" s="0"/>
+      <c r="XO35" s="0"/>
+      <c r="XP35" s="0"/>
+      <c r="XQ35" s="0"/>
+      <c r="XR35" s="0"/>
+      <c r="XS35" s="0"/>
+      <c r="XT35" s="0"/>
+      <c r="XU35" s="0"/>
+      <c r="XV35" s="0"/>
+      <c r="XW35" s="0"/>
+      <c r="XX35" s="0"/>
+      <c r="XY35" s="0"/>
+      <c r="XZ35" s="0"/>
+      <c r="YA35" s="0"/>
+      <c r="YB35" s="0"/>
+      <c r="YC35" s="0"/>
+      <c r="YD35" s="0"/>
+      <c r="YE35" s="0"/>
+      <c r="YF35" s="0"/>
+      <c r="YG35" s="0"/>
+      <c r="YH35" s="0"/>
+      <c r="YI35" s="0"/>
+      <c r="YJ35" s="0"/>
+      <c r="YK35" s="0"/>
+      <c r="YL35" s="0"/>
+      <c r="YM35" s="0"/>
+      <c r="YN35" s="0"/>
+      <c r="YO35" s="0"/>
+      <c r="YP35" s="0"/>
+      <c r="YQ35" s="0"/>
+      <c r="YR35" s="0"/>
+      <c r="YS35" s="0"/>
+      <c r="YT35" s="0"/>
+      <c r="YU35" s="0"/>
+      <c r="YV35" s="0"/>
+      <c r="YW35" s="0"/>
+      <c r="YX35" s="0"/>
+      <c r="YY35" s="0"/>
+      <c r="YZ35" s="0"/>
+      <c r="ZA35" s="0"/>
+      <c r="ZB35" s="0"/>
+      <c r="ZC35" s="0"/>
+      <c r="ZD35" s="0"/>
+      <c r="ZE35" s="0"/>
+      <c r="ZF35" s="0"/>
+      <c r="ZG35" s="0"/>
+      <c r="ZH35" s="0"/>
+      <c r="ZI35" s="0"/>
+      <c r="ZJ35" s="0"/>
+      <c r="ZK35" s="0"/>
+      <c r="ZL35" s="0"/>
+      <c r="ZM35" s="0"/>
+      <c r="ZN35" s="0"/>
+      <c r="ZO35" s="0"/>
+      <c r="ZP35" s="0"/>
+      <c r="ZQ35" s="0"/>
+      <c r="ZR35" s="0"/>
+      <c r="ZS35" s="0"/>
+      <c r="ZT35" s="0"/>
+      <c r="ZU35" s="0"/>
+      <c r="ZV35" s="0"/>
+      <c r="ZW35" s="0"/>
+      <c r="ZX35" s="0"/>
+      <c r="ZY35" s="0"/>
+      <c r="ZZ35" s="0"/>
+      <c r="AAA35" s="0"/>
+      <c r="AAB35" s="0"/>
+      <c r="AAC35" s="0"/>
+      <c r="AAD35" s="0"/>
+      <c r="AAE35" s="0"/>
+      <c r="AAF35" s="0"/>
+      <c r="AAG35" s="0"/>
+      <c r="AAH35" s="0"/>
+      <c r="AAI35" s="0"/>
+      <c r="AAJ35" s="0"/>
+      <c r="AAK35" s="0"/>
+      <c r="AAL35" s="0"/>
+      <c r="AAM35" s="0"/>
+      <c r="AAN35" s="0"/>
+      <c r="AAO35" s="0"/>
+      <c r="AAP35" s="0"/>
+      <c r="AAQ35" s="0"/>
+      <c r="AAR35" s="0"/>
+      <c r="AAS35" s="0"/>
+      <c r="AAT35" s="0"/>
+      <c r="AAU35" s="0"/>
+      <c r="AAV35" s="0"/>
+      <c r="AAW35" s="0"/>
+      <c r="AAX35" s="0"/>
+      <c r="AAY35" s="0"/>
+      <c r="AAZ35" s="0"/>
+      <c r="ABA35" s="0"/>
+      <c r="ABB35" s="0"/>
+      <c r="ABC35" s="0"/>
+      <c r="ABD35" s="0"/>
+      <c r="ABE35" s="0"/>
+      <c r="ABF35" s="0"/>
+      <c r="ABG35" s="0"/>
+      <c r="ABH35" s="0"/>
+      <c r="ABI35" s="0"/>
+      <c r="ABJ35" s="0"/>
+      <c r="ABK35" s="0"/>
+      <c r="ABL35" s="0"/>
+      <c r="ABM35" s="0"/>
+      <c r="ABN35" s="0"/>
+      <c r="ABO35" s="0"/>
+      <c r="ABP35" s="0"/>
+      <c r="ABQ35" s="0"/>
+      <c r="ABR35" s="0"/>
+      <c r="ABS35" s="0"/>
+      <c r="ABT35" s="0"/>
+      <c r="ABU35" s="0"/>
+      <c r="ABV35" s="0"/>
+      <c r="ABW35" s="0"/>
+      <c r="ABX35" s="0"/>
+      <c r="ABY35" s="0"/>
+      <c r="ABZ35" s="0"/>
+      <c r="ACA35" s="0"/>
+      <c r="ACB35" s="0"/>
+      <c r="ACC35" s="0"/>
+      <c r="ACD35" s="0"/>
+      <c r="ACE35" s="0"/>
+      <c r="ACF35" s="0"/>
+      <c r="ACG35" s="0"/>
+      <c r="ACH35" s="0"/>
+      <c r="ACI35" s="0"/>
+      <c r="ACJ35" s="0"/>
+      <c r="ACK35" s="0"/>
+      <c r="ACL35" s="0"/>
+      <c r="ACM35" s="0"/>
+      <c r="ACN35" s="0"/>
+      <c r="ACO35" s="0"/>
+      <c r="ACP35" s="0"/>
+      <c r="ACQ35" s="0"/>
+      <c r="ACR35" s="0"/>
+      <c r="ACS35" s="0"/>
+      <c r="ACT35" s="0"/>
+      <c r="ACU35" s="0"/>
+      <c r="ACV35" s="0"/>
+      <c r="ACW35" s="0"/>
+      <c r="ACX35" s="0"/>
+      <c r="ACY35" s="0"/>
+      <c r="ACZ35" s="0"/>
+      <c r="ADA35" s="0"/>
+      <c r="ADB35" s="0"/>
+      <c r="ADC35" s="0"/>
+      <c r="ADD35" s="0"/>
+      <c r="ADE35" s="0"/>
+      <c r="ADF35" s="0"/>
+      <c r="ADG35" s="0"/>
+      <c r="ADH35" s="0"/>
+      <c r="ADI35" s="0"/>
+      <c r="ADJ35" s="0"/>
+      <c r="ADK35" s="0"/>
+      <c r="ADL35" s="0"/>
+      <c r="ADM35" s="0"/>
+      <c r="ADN35" s="0"/>
+      <c r="ADO35" s="0"/>
+      <c r="ADP35" s="0"/>
+      <c r="ADQ35" s="0"/>
+      <c r="ADR35" s="0"/>
+      <c r="ADS35" s="0"/>
+      <c r="ADT35" s="0"/>
+      <c r="ADU35" s="0"/>
+      <c r="ADV35" s="0"/>
+      <c r="ADW35" s="0"/>
+      <c r="ADX35" s="0"/>
+      <c r="ADY35" s="0"/>
+      <c r="ADZ35" s="0"/>
+      <c r="AEA35" s="0"/>
+      <c r="AEB35" s="0"/>
+      <c r="AEC35" s="0"/>
+      <c r="AED35" s="0"/>
+      <c r="AEE35" s="0"/>
+      <c r="AEF35" s="0"/>
+      <c r="AEG35" s="0"/>
+      <c r="AEH35" s="0"/>
+      <c r="AEI35" s="0"/>
+      <c r="AEJ35" s="0"/>
+      <c r="AEK35" s="0"/>
+      <c r="AEL35" s="0"/>
+      <c r="AEM35" s="0"/>
+      <c r="AEN35" s="0"/>
+      <c r="AEO35" s="0"/>
+      <c r="AEP35" s="0"/>
+      <c r="AEQ35" s="0"/>
+      <c r="AER35" s="0"/>
+      <c r="AES35" s="0"/>
+      <c r="AET35" s="0"/>
+      <c r="AEU35" s="0"/>
+      <c r="AEV35" s="0"/>
+      <c r="AEW35" s="0"/>
+      <c r="AEX35" s="0"/>
+      <c r="AEY35" s="0"/>
+      <c r="AEZ35" s="0"/>
+      <c r="AFA35" s="0"/>
+      <c r="AFB35" s="0"/>
+      <c r="AFC35" s="0"/>
+      <c r="AFD35" s="0"/>
+      <c r="AFE35" s="0"/>
+      <c r="AFF35" s="0"/>
+      <c r="AFG35" s="0"/>
+      <c r="AFH35" s="0"/>
+      <c r="AFI35" s="0"/>
+      <c r="AFJ35" s="0"/>
+      <c r="AFK35" s="0"/>
+      <c r="AFL35" s="0"/>
+      <c r="AFM35" s="0"/>
+      <c r="AFN35" s="0"/>
+      <c r="AFO35" s="0"/>
+      <c r="AFP35" s="0"/>
+      <c r="AFQ35" s="0"/>
+      <c r="AFR35" s="0"/>
+      <c r="AFS35" s="0"/>
+      <c r="AFT35" s="0"/>
+      <c r="AFU35" s="0"/>
+      <c r="AFV35" s="0"/>
+      <c r="AFW35" s="0"/>
+      <c r="AFX35" s="0"/>
+      <c r="AFY35" s="0"/>
+      <c r="AFZ35" s="0"/>
+      <c r="AGA35" s="0"/>
+      <c r="AGB35" s="0"/>
+      <c r="AGC35" s="0"/>
+      <c r="AGD35" s="0"/>
+      <c r="AGE35" s="0"/>
+      <c r="AGF35" s="0"/>
+      <c r="AGG35" s="0"/>
+      <c r="AGH35" s="0"/>
+      <c r="AGI35" s="0"/>
+      <c r="AGJ35" s="0"/>
+      <c r="AGK35" s="0"/>
+      <c r="AGL35" s="0"/>
+      <c r="AGM35" s="0"/>
+      <c r="AGN35" s="0"/>
+      <c r="AGO35" s="0"/>
+      <c r="AGP35" s="0"/>
+      <c r="AGQ35" s="0"/>
+      <c r="AGR35" s="0"/>
+      <c r="AGS35" s="0"/>
+      <c r="AGT35" s="0"/>
+      <c r="AGU35" s="0"/>
+      <c r="AGV35" s="0"/>
+      <c r="AGW35" s="0"/>
+      <c r="AGX35" s="0"/>
+      <c r="AGY35" s="0"/>
+      <c r="AGZ35" s="0"/>
+      <c r="AHA35" s="0"/>
+      <c r="AHB35" s="0"/>
+      <c r="AHC35" s="0"/>
+      <c r="AHD35" s="0"/>
+      <c r="AHE35" s="0"/>
+      <c r="AHF35" s="0"/>
+      <c r="AHG35" s="0"/>
+      <c r="AHH35" s="0"/>
+      <c r="AHI35" s="0"/>
+      <c r="AHJ35" s="0"/>
+      <c r="AHK35" s="0"/>
+      <c r="AHL35" s="0"/>
+      <c r="AHM35" s="0"/>
+      <c r="AHN35" s="0"/>
+      <c r="AHO35" s="0"/>
+      <c r="AHP35" s="0"/>
+      <c r="AHQ35" s="0"/>
+      <c r="AHR35" s="0"/>
+      <c r="AHS35" s="0"/>
+      <c r="AHT35" s="0"/>
+      <c r="AHU35" s="0"/>
+      <c r="AHV35" s="0"/>
+      <c r="AHW35" s="0"/>
+      <c r="AHX35" s="0"/>
+      <c r="AHY35" s="0"/>
+      <c r="AHZ35" s="0"/>
+      <c r="AIA35" s="0"/>
+      <c r="AIB35" s="0"/>
+      <c r="AIC35" s="0"/>
+      <c r="AID35" s="0"/>
+      <c r="AIE35" s="0"/>
+      <c r="AIF35" s="0"/>
+      <c r="AIG35" s="0"/>
+      <c r="AIH35" s="0"/>
+      <c r="AII35" s="0"/>
+      <c r="AIJ35" s="0"/>
+      <c r="AIK35" s="0"/>
+      <c r="AIL35" s="0"/>
+      <c r="AIM35" s="0"/>
+      <c r="AIN35" s="0"/>
+      <c r="AIO35" s="0"/>
+      <c r="AIP35" s="0"/>
+      <c r="AIQ35" s="0"/>
+      <c r="AIR35" s="0"/>
+      <c r="AIS35" s="0"/>
+      <c r="AIT35" s="0"/>
+      <c r="AIU35" s="0"/>
+      <c r="AIV35" s="0"/>
+      <c r="AIW35" s="0"/>
+      <c r="AIX35" s="0"/>
+      <c r="AIY35" s="0"/>
+      <c r="AIZ35" s="0"/>
+      <c r="AJA35" s="0"/>
+      <c r="AJB35" s="0"/>
+      <c r="AJC35" s="0"/>
+      <c r="AJD35" s="0"/>
+      <c r="AJE35" s="0"/>
+      <c r="AJF35" s="0"/>
+      <c r="AJG35" s="0"/>
+      <c r="AJH35" s="0"/>
+      <c r="AJI35" s="0"/>
+      <c r="AJJ35" s="0"/>
+      <c r="AJK35" s="0"/>
+      <c r="AJL35" s="0"/>
+      <c r="AJM35" s="0"/>
+      <c r="AJN35" s="0"/>
+      <c r="AJO35" s="0"/>
+      <c r="AJP35" s="0"/>
+      <c r="AJQ35" s="0"/>
+      <c r="AJR35" s="0"/>
+      <c r="AJS35" s="0"/>
+      <c r="AJT35" s="0"/>
+      <c r="AJU35" s="0"/>
+      <c r="AJV35" s="0"/>
+      <c r="AJW35" s="0"/>
+      <c r="AJX35" s="0"/>
+      <c r="AJY35" s="0"/>
+      <c r="AJZ35" s="0"/>
+      <c r="AKA35" s="0"/>
+      <c r="AKB35" s="0"/>
+      <c r="AKC35" s="0"/>
+      <c r="AKD35" s="0"/>
+      <c r="AKE35" s="0"/>
+      <c r="AKF35" s="0"/>
+      <c r="AKG35" s="0"/>
+      <c r="AKH35" s="0"/>
+      <c r="AKI35" s="0"/>
+      <c r="AKJ35" s="0"/>
+      <c r="AKK35" s="0"/>
+      <c r="AKL35" s="0"/>
+      <c r="AKM35" s="0"/>
+      <c r="AKN35" s="0"/>
+      <c r="AKO35" s="0"/>
+      <c r="AKP35" s="0"/>
+      <c r="AKQ35" s="0"/>
+      <c r="AKR35" s="0"/>
+      <c r="AKS35" s="0"/>
+      <c r="AKT35" s="0"/>
+      <c r="AKU35" s="0"/>
+      <c r="AKV35" s="0"/>
+      <c r="AKW35" s="0"/>
+      <c r="AKX35" s="0"/>
+      <c r="AKY35" s="0"/>
+      <c r="AKZ35" s="0"/>
+      <c r="ALA35" s="0"/>
+      <c r="ALB35" s="0"/>
+      <c r="ALC35" s="0"/>
+      <c r="ALD35" s="0"/>
+      <c r="ALE35" s="0"/>
+      <c r="ALF35" s="0"/>
+      <c r="ALG35" s="0"/>
+      <c r="ALH35" s="0"/>
+      <c r="ALI35" s="0"/>
+      <c r="ALJ35" s="0"/>
+      <c r="ALK35" s="0"/>
+      <c r="ALL35" s="0"/>
+      <c r="ALM35" s="0"/>
+      <c r="ALN35" s="0"/>
+      <c r="ALO35" s="0"/>
+      <c r="ALP35" s="0"/>
+      <c r="ALQ35" s="0"/>
+      <c r="ALR35" s="0"/>
+      <c r="ALS35" s="0"/>
+      <c r="ALT35" s="0"/>
+      <c r="ALU35" s="0"/>
+      <c r="ALV35" s="0"/>
+      <c r="ALW35" s="0"/>
+      <c r="ALX35" s="0"/>
+      <c r="ALY35" s="0"/>
+      <c r="ALZ35" s="0"/>
+      <c r="AMA35" s="0"/>
+      <c r="AMB35" s="0"/>
+      <c r="AMC35" s="0"/>
+      <c r="AMD35" s="0"/>
+      <c r="AME35" s="0"/>
+      <c r="AMF35" s="0"/>
+      <c r="AMG35" s="0"/>
+      <c r="AMH35" s="0"/>
+      <c r="AMI35" s="0"/>
+      <c r="AMJ35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+    <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6"/>
+      <c r="B37" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4"/>
+      <c r="A38" s="6"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4"/>
+      <c r="A42" s="6"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4"/>
+      <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4"/>
+      <c r="A44" s="6"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0"/>
-      <c r="B45" s="0"/>
-      <c r="C45" s="0"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0"/>
-      <c r="B46" s="0"/>
-      <c r="C46" s="0"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8"/>
+      <c r="A47" s="6"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
+      <c r="A48" s="0"/>
+      <c r="B48" s="0"/>
+      <c r="C48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
+      <c r="A49" s="0"/>
+      <c r="B49" s="0"/>
+      <c r="C49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7"/>
+      <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7"/>
+      <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7"/>
+      <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
     </row>
@@ -34953,9 +38121,24 @@
       <c r="C58" s="8"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="11"/>
+      <c r="A59" s="7"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="7"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="7"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="11"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -34968,534 +38151,635 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:49"/>
+  <dimension ref="1:58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D46" activeCellId="0" sqref="D46"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.62121212121212"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0959595959596"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6969696969697"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.8737373737374"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3838383838384"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.5808080808081"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.0505050505051"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.3838383838384"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.959595959596"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.15151515151515"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.2979797979798"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.3737373737374"/>
-    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="8.15151515151515"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="21.3787878787879"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.95454545454546"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2929292929293"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.7575757575758"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.2070707070707"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.1565656565657"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.1111111111111"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.5808080808081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.7828282828283"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.5353535353535"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.1565656565657"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.0959595959596"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.1717171717172"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.7777777777778"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.8484848484848"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.9090909090909"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
+    <row r="1" s="3" customFormat="true" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>109</v>
+      <c r="B1" s="2" t="s">
+        <v>115</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
+      <c r="C1" s="2" t="s">
+        <v>116</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>110</v>
+      <c r="D1" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
+      <c r="F1" s="2" t="s">
+        <v>119</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>112</v>
+      <c r="G1" s="2" t="s">
+        <v>120</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>113</v>
+      <c r="H1" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>115</v>
+      <c r="J1" s="2" t="s">
+        <v>123</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>116</v>
+      <c r="K1" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>118</v>
+      <c r="N1" s="2" t="s">
+        <v>127</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>119</v>
+      <c r="O1" s="2" t="s">
+        <v>128</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>120</v>
+      <c r="P1" s="2" t="s">
+        <v>129</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>121</v>
+      <c r="Q1" s="2" t="s">
+        <v>130</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>125</v>
+      <c r="V1" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="AMJ1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C3" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D4" s="3"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>127</v>
+      <c r="F4" s="5" t="s">
+        <v>136</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D5" s="3"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>127</v>
+      <c r="F5" s="5" t="s">
+        <v>136</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="20.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E6" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>128</v>
+      <c r="F6" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E7" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>127</v>
+      <c r="F7" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>127</v>
+      <c r="F8" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E9" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>127</v>
+      <c r="F9" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>131</v>
+        <v>38</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E11" s="8"/>
     </row>
     <row r="12" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="13"/>
+      <c r="C12" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="7"/>
-      <c r="E14" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>127</v>
-      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E15" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E16" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>135</v>
-      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
     </row>
-    <row r="17" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="13"/>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="7"/>
     </row>
-    <row r="18" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" s="14" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" s="14" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>53</v>
-      </c>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E23" s="9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>137</v>
+      <c r="G23" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E24" s="9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>127</v>
+        <v>146</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="9" t="s">
-        <v>62</v>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="7" t="s">
+        <v>140</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>127</v>
+      <c r="D25" s="7" t="s">
+        <v>148</v>
       </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
-    <row r="26" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E26" s="9" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
+      <c r="G26" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H26" s="8"/>
     </row>
-    <row r="27" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="9" t="s">
-        <v>68</v>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="7" t="s">
+        <v>150</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>127</v>
-      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E28" s="9" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E29" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="30" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="11"/>
-    </row>
-    <row r="31" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="15" t="s">
-        <v>132</v>
+    <row r="30" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
-    <row r="32" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="15" t="s">
-        <v>126</v>
+    <row r="31" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
-    <row r="33" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="15"/>
-      <c r="E33" s="15" t="s">
-        <v>105</v>
+    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="9" t="s">
+        <v>68</v>
       </c>
-      <c r="F33" s="15" t="s">
-        <v>127</v>
+      <c r="F32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" s="7"/>
+    </row>
+    <row r="33" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
-    <row r="34" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="15"/>
-      <c r="E34" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>127</v>
+    <row r="34" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="16"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="7" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>127</v>
+    <row r="36" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="13" t="s">
+        <v>152</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E36" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E37" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>127</v>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="7" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E38" s="7" t="s">
+      <c r="C38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E40" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E41" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E42" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E46" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>127</v>
+      <c r="F46" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E39" s="9" t="s">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E47" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>133</v>
+      <c r="F47" s="7" t="s">
+        <v>136</v>
       </c>
-      <c r="G39" s="7" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E48" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" s="14"/>
+    </row>
+    <row r="51" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E51" s="14"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="7"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E54" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E55" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E56" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="40" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="11"/>
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="7" t="s">
-        <v>132</v>
+    <row r="58" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="13" t="s">
+        <v>150</v>
       </c>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="11"/>
-      <c r="E42" s="13"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="7"/>
-      <c r="E44" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E45" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E46" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E47" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -35508,7 +38792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -35516,62 +38800,62 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1060606060606"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4494949494949"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.7222222222222"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.4747474747475"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.4444444444444"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9040404040404"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.979797979798"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9848484848485"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.2020202020202"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.1060606060606"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>143</v>
+      <c r="C3" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>145</v>
+      <c r="C4" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35582,30 +38866,30 @@
     </row>
     <row r="6" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="9" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="9" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35616,30 +38900,30 @@
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="9" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="9" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35650,72 +38934,72 @@
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="9" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="9" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="9" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="9" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="9" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>168</v>
+        <v>54</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>169</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35726,58 +39010,58 @@
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="9" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="9" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="9" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="9" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>180</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -35795,134 +39079,166 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:14"/>
+  <dimension ref="1:19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9040404040404"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1717171717172"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.0252525252525"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3030303030303"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.7929292929293"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.6969696969697"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7020202020202"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3535353535354"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1010101010101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.9242424242424"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>181</v>
+    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="s">
-        <v>128</v>
+      <c r="B3" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="3" t="s">
-        <v>71</v>
+      <c r="B14" s="5" t="s">
+        <v>193</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>71</v>
+      <c r="C14" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -35936,46 +39252,62 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7020202020202"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.0909090909091"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7575757575758"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.4191919191919"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>182</v>
+    <row r="1" s="4" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>195</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>116</v>
+      <c r="B1" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/tables/consent/forms/consent/consent.xlsx
+++ b/tables/consent/forms/consent/consent.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="206">
   <si>
     <t xml:space="preserve">setting_name</t>
   </si>
@@ -2384,7 +2384,16 @@
     <t xml:space="preserve">Alys McAlpine</t>
   </si>
   <si>
-    <t xml:space="preserve">Khin Maung Aye</t>
+    <t xml:space="preserve">Wah Wah Aung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soe Ei San</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Than Cho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luke DeMarest</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
@@ -2678,7 +2687,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2739,18 +2748,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2780,12 +2777,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3636363636364"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8282828282828"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="18.5757575757576"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.34848484848485"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="20.3131313131313"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0959595959596"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5606060606061"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="18.1717171717172"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="19.7777777777778"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2900,11 +2895,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="30.0656565656566"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="46.1010101010101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="46.3686868686869"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="118.530303030303"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="5" width="4.27777777777778"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="29.2626262626263"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="45.1666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="45.4343434343434"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="116.121212121212"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="5" width="4.14141414141414"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38002,6 +37997,7 @@
       <c r="A36" s="6"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
+      <c r="D36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
@@ -38158,31 +38154,27 @@
   </sheetPr>
   <dimension ref="1:58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.95454545454546"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2929292929293"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.7575757575758"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.2070707070707"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.1565656565657"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.1111111111111"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.5808080808081"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.7828282828283"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.5353535353535"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.1565656565657"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.34848484848485"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.0959595959596"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.1717171717172"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="7.34848484848485"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.7777777777778"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.8484848484848"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="7.34848484848485"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.9090909090909"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.68686868686869"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.0252525252525"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3585858585859"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.3434343434343"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.4646464646465"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.7070707070707"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.0454545454545"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.2474747474747"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.2323232323232"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.88888888888889"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.8282828282828"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.6414141414141"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.2424242424242"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.3131313131313"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.3737373737374"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38430,10 +38422,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="7" t="s">
@@ -38553,7 +38545,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="9" t="s">
         <v>112</v>
       </c>
       <c r="F31" s="7" t="s">
@@ -38595,8 +38587,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="16"/>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="7" t="s">
@@ -38797,20 +38789,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9040404040404"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.979797979798"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9848484848485"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.2020202020202"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.1060606060606"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4444444444444"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.4494949494949"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.4040404040404"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.0353535353535"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38834,7 +38825,7 @@
       <c r="B3" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>160</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -38848,73 +38839,73 @@
       <c r="B4" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+    <row r="5" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="6" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="9" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="9" t="s">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="9" t="s">
-        <v>144</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>165</v>
@@ -38923,151 +38914,199 @@
         <v>166</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>172</v>
-      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>181</v>
-      </c>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="9" t="s">
         <v>147</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>55</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="9" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E22" s="8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="9" t="s">
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E23" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="9" t="s">
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>182</v>
+      <c r="C24" s="9" t="s">
+        <v>192</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D24" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -39092,22 +39131,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.6969696969697"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7020202020202"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3535353535354"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1010101010101"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.9242424242424"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.2979797979798"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3030303030303"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.4141414141414"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.6969696969697"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.2575757575758"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>120</v>
       </c>
       <c r="AMJ1" s="0"/>
@@ -39203,10 +39241,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39265,14 +39303,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7575757575758"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.4191919191919"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1868686868687"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.4848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>124</v>
@@ -39280,18 +39317,18 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39299,15 +39336,15 @@
         <v>53</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/tables/consent/forms/consent/consent.xlsx
+++ b/tables/consent/forms/consent/consent.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="225">
   <si>
     <t xml:space="preserve">setting_name</t>
   </si>
@@ -2246,6 +2246,98 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">less_than_5 years </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;span style="font-weight:bold"&gt;Do you confirm you have been in Thailand for less than 5 years?&lt;/div&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;span style="font-weight:bold"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ခင်ဗျားကထိုင်းနိုင်ငံကိုရောက်လာတာ ၅ နှစ်ထက်ပိုမကြာကြောင်း အတည်ပြုပါသလား။</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">more_than_5 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unfortunately, we are only interviewing migrants that arrived in last 5 years because otherwise it might be difficult for you to remember about your migration process. I am sorry we cannot interview you today, but thank you for your interest and time.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">စိတ်မကောင်းပါဘူး။ ကျွန်တော်</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ကျွန်မက လွန်ခဲ့​သော ၅ နှစ် မှရောက်လာသော ရွေ့ပြောင်းအလုပ်သမားကိုသာ မေးမြန်ပါသည်။ ဘာ​ကြောင့်လဲဆိုတော့ ခင်ဗျားက ခင်ဗျားရဲ့ ဘယ်လိုရွေ့ပြောင်းခဲ့လဲဆိုတဲ့အကြောင်းကိုကောင်းကောင်းမှတ်မိမှာမဟုတ်လို့ဖြစ်တယ်</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">စိတ်မကောင်းပါဘူး။ ခင်ဗျားကိုဒီနေ့မေးမြန်းလို့မရပါဘူး။ ခင်ဗျားရဲ့ အချိန်ပေးမှုနှင့် စိတ်၀င်စားမှုအတွက်အရမ်းကိုကျေးဇူးတင်ပါတယ်။</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">branch_label</t>
   </si>
   <si>
@@ -2321,10 +2413,25 @@
     <t xml:space="preserve">end screen</t>
   </si>
   <si>
+    <t xml:space="preserve">adult</t>
+  </si>
+  <si>
     <t xml:space="preserve">if</t>
   </si>
   <si>
     <t xml:space="preserve">calculates.is_adult()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lessThanFiveYears</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculates.less_than_five_years()</t>
   </si>
   <si>
     <t xml:space="preserve">text</t>
@@ -2391,9 +2498,6 @@
   </si>
   <si>
     <t xml:space="preserve">Than Cho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luke DeMarest</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
@@ -2492,6 +2596,33 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">facebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facebook</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ဖေ့စ်ဘို့ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(Facebook)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">other</t>
   </si>
   <si>
@@ -2549,6 +2680,72 @@
     <t xml:space="preserve">မမှာ ဒီနေ့ အချိန်မအားလို့ပါ</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes, I have been in Thailand for less than 5 years</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ဟုတ်ကဲ့ ကျွန်တော်</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ကျွန်မဟာ ဒီထိုင်းနိုင်ငံကို ရောက်တာ ၅နှစ်ထက်မပိုပါဘူး</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">No, I have been in Thailand for more than 5 years</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">မဟုတ်ပါ။ ကျွန်တော်</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ကျွန်မဟာ ဒီထိုင်းနိုင်ငံကို ရောက်တာ ၅နှစ်ထက် ပိုကျော်သွားပါပြီ။</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">comment</t>
   </si>
   <si>
@@ -2580,6 +2777,12 @@
   </si>
   <si>
     <t xml:space="preserve">selected(data("reasonRefusal"), "other")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">less_than_five_years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data("lessThanFiveYears"), "yes")</t>
   </si>
 </sst>
 </file>
@@ -2736,10 +2939,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2749,6 +2948,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2777,10 +2980,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0959595959596"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5606060606061"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="18.1717171717172"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="19.7777777777778"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8282828282828"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2929292929293"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="17.6414141414141"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="19.2424242424242"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.41919191919192"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2889,17 +3094,17 @@
   </sheetPr>
   <dimension ref="1:62"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="29.2626262626263"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="45.1666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="45.4343434343434"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="116.121212121212"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="5" width="4.14141414141414"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="28.5959595959596"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="44.0959595959596"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="44.3636363636364"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="113.717171717172"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="5" width="4.01010101010101"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38026,10 +38231,17 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="B41" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
@@ -38046,10 +38258,17 @@
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
+      <c r="B45" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
@@ -38152,29 +38371,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:58"/>
+  <dimension ref="1:67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.68686868686869"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.0252525252525"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3585858585859"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.3434343434343"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.4646464646465"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.7070707070707"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.0454545454545"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.2474747474747"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.2323232323232"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.88888888888889"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.8282828282828"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.6414141414141"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.2424242424242"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.3131313131313"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.3737373737374"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6262626262626"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0909090909091"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.540404040404"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.7929292929293"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3080808080808"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.510101010101"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.8484848484848"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.9646464646465"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.62121212121212"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.5606060606061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.1060606060606"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.8434343434343"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.7777777777778"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.9747474747475"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.41919191919192"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38182,67 +38405,67 @@
         <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="V1" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AMJ1" s="7"/>
     </row>
@@ -38268,7 +38491,7 @@
     </row>
     <row r="3" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C3" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -38284,7 +38507,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
@@ -38297,7 +38520,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="6"/>
@@ -38309,13 +38532,13 @@
         <v>26</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>1</v>
@@ -38326,7 +38549,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -38336,7 +38559,7 @@
         <v>32</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
@@ -38346,7 +38569,7 @@
         <v>35</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -38356,7 +38579,7 @@
         <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>38</v>
@@ -38370,407 +38593,504 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E11" s="8"/>
     </row>
     <row r="12" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="14"/>
+      <c r="A12" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="7" t="s">
-        <v>135</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>143</v>
-      </c>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>1</v>
-      </c>
+    <row r="16" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>141</v>
+      </c>
       <c r="E17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="7"/>
+      <c r="C18" s="7"/>
       <c r="E18" s="8"/>
+      <c r="F18" s="7"/>
     </row>
-    <row r="19" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E19" s="14"/>
+    <row r="19" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
+    <row r="20" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>145</v>
+      </c>
       <c r="D22" s="7"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>47</v>
-      </c>
+    <row r="23" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="13"/>
     </row>
-    <row r="24" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>147</v>
-      </c>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>148</v>
-      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="8"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
     </row>
-    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="9" t="s">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H26" s="8"/>
+      <c r="F30" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H30" s="8"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>1</v>
-      </c>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E32" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P32" s="7"/>
+        <v>142</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E33" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" s="7"/>
+    </row>
+    <row r="37" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F37" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="I37" s="0" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="7"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="C39" s="7" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="40" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E40" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>136</v>
+    <row r="40" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>163</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E41" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>136</v>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E42" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>153</v>
-      </c>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E43" s="8"/>
+      <c r="C43" s="7"/>
+      <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
     </row>
-    <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+    <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E45" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="46" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E47" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>136</v>
-      </c>
+      <c r="C47" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E48" s="9" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>156</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="H48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="7" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
     </row>
-    <row r="50" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E50" s="14"/>
+    <row r="50" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E50" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="51" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="E51" s="14"/>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E51" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E52" s="8"/>
+    <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E52" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="7"/>
+      <c r="C53" s="7" t="s">
+        <v>145</v>
+      </c>
       <c r="E53" s="8"/>
       <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E54" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>136</v>
-      </c>
+    <row r="54" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E54" s="13"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E55" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>136</v>
+    <row r="55" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>163</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E56" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>157</v>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="5" t="s">
-        <v>139</v>
+      <c r="E57" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="58" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="13" t="s">
-        <v>150</v>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E60" s="13"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="7"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E63" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E64" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E65" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -38789,19 +39109,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4444444444444"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.4494949494949"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.4040404040404"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.0353535353535"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1010101010101"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9090909090909"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.9141414141414"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.7323232323232"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.969696969697"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.41919191919192"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38809,10 +39130,10 @@
         <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -38823,73 +39144,65 @@
     </row>
     <row r="3" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="9" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="9" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>161</v>
+        <v>172</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="9" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>162</v>
+        <v>173</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="9" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>164</v>
-      </c>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="8"/>
@@ -38908,13 +39221,13 @@
         <v>38</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38922,13 +39235,13 @@
         <v>38</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38939,30 +39252,30 @@
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38973,140 +39286,181 @@
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="9" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="9" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="9" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="9" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="9" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E21" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>188</v>
-      </c>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="9" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="9" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="9" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="D25" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E26" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -39123,30 +39477,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:19"/>
+  <dimension ref="1:21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.2979797979798"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3030303030303"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.4141414141414"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.6969696969697"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.2575757575758"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.8989898989899"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9040404040404"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.6161616161616"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.2979797979798"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.7222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.41919191919192"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>120</v>
+        <v>212</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>
@@ -39157,15 +39512,15 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>38</v>
@@ -39173,31 +39528,31 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>47</v>
@@ -39213,26 +39568,26 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39241,10 +39596,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39252,31 +39607,39 @@
         <v>68</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -39295,40 +39658,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1868686868687"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.4848484848485"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.520202020202"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5505050505051"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.41919191919192"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39336,15 +39700,23 @@
         <v>53</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
